--- a/data/hotels_by_city/Dallas/Dallas_shard_513.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="697">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,1990 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r581938310-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>56225</t>
+  </si>
+  <si>
+    <t>858427</t>
+  </si>
+  <si>
+    <t>581938310</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Great stay in Mansfield</t>
+  </si>
+  <si>
+    <t>We booked a room here at the last minute when our original room at another hotel was not ready upon check in. I called the La Quinta and Julia at the front desk quickly and graciously got us into a room in time to shower, dress and make it to our afternoon event. The service and accommodations were outstanding!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We booked a room here at the last minute when our original room at another hotel was not ready upon check in. I called the La Quinta and Julia at the front desk quickly and graciously got us into a room in time to shower, dress and make it to our afternoon event. The service and accommodations were outstanding!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r557723872-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>557723872</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>CHRISTIE BYRD SAVED THE DAY!</t>
+  </si>
+  <si>
+    <t>I stayed at this La Quinta from 22- 26 January 2018, primarily because it was a two-minute walk to The Isle at Watercress.  A friend of 50-years standing had been in the Memory Care unit there, with Alzheimers.  She died on Christmas Eve and a Memorial Service/Celebration of Life was to be held there on the 26th.  On the 24th, the Isle had to go a full quarantine status due to an outbreak of flu.  We were faced with suddenly not having a place to hold the ceremony, with multiple people flying in from out of town.  Christie Byrd, the La Quinta manager, moved heaven and earth to clear out their meeting room, which was being used as a storage site for renovation materials to  upgrade the facility.  In about 24 hours she and her staff created an incredible attractive and welcoming venue for what turned out to be a wonderful event.  the La Quinta, as just a motel, already had me ready to give a five-star review,  just for the pool/hot tub and morning breakfast.  The room amenities, particularly the free WiFi and overall ambiance were also perfect.  If you need a place to stay in Mansfield, Texas, look no further.  Oh, did I forget to mention the Military Discount?  My bad!  Cheers...Ed B.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded February 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2018</t>
+  </si>
+  <si>
+    <t>I stayed at this La Quinta from 22- 26 January 2018, primarily because it was a two-minute walk to The Isle at Watercress.  A friend of 50-years standing had been in the Memory Care unit there, with Alzheimers.  She died on Christmas Eve and a Memorial Service/Celebration of Life was to be held there on the 26th.  On the 24th, the Isle had to go a full quarantine status due to an outbreak of flu.  We were faced with suddenly not having a place to hold the ceremony, with multiple people flying in from out of town.  Christie Byrd, the La Quinta manager, moved heaven and earth to clear out their meeting room, which was being used as a storage site for renovation materials to  upgrade the facility.  In about 24 hours she and her staff created an incredible attractive and welcoming venue for what turned out to be a wonderful event.  the La Quinta, as just a motel, already had me ready to give a five-star review,  just for the pool/hot tub and morning breakfast.  The room amenities, particularly the free WiFi and overall ambiance were also perfect.  If you need a place to stay in Mansfield, Texas, look no further.  Oh, did I forget to mention the Military Discount?  My bad!  Cheers...Ed B.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r581870336-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>581870336</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Gem Along the Texas Hwys</t>
+  </si>
+  <si>
+    <t>What a place! From the moment I pulled into the parking lot until I packed my last suitcase, it made me feel comfortable, safe and ready for my next adventure. Everyone was friendly and helpful. REALLY! All the time. Almost Twilight Zone service and comfort. So good, it's almost scary.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>What a place! From the moment I pulled into the parking lot until I packed my last suitcase, it made me feel comfortable, safe and ready for my next adventure. Everyone was friendly and helpful. REALLY! All the time. Almost Twilight Zone service and comfort. So good, it's almost scary.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r561701487-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>561701487</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>Near Miss Becomes a Great Experience</t>
+  </si>
+  <si>
+    <t>Due to a mix up with online booking our reservation was lost.  The hotel was completely booked yet Emily Gem was miraculously able to find us a room.  Most places would have sent you on your way, which has happened before.  Not here.  Emily went above and beyond to find us a room.  She was relentless and we soooo appreciated it. Christie, the manager, was also instrumental in making our stay happen. The entire staff was also excellent.  I have NEVER seen this type of service before.-Gabe Cano, San Antonio, TXMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2018</t>
+  </si>
+  <si>
+    <t>Due to a mix up with online booking our reservation was lost.  The hotel was completely booked yet Emily Gem was miraculously able to find us a room.  Most places would have sent you on your way, which has happened before.  Not here.  Emily went above and beyond to find us a room.  She was relentless and we soooo appreciated it. Christie, the manager, was also instrumental in making our stay happen. The entire staff was also excellent.  I have NEVER seen this type of service before.-Gabe Cano, San Antonio, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r559581519-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>559581519</t>
+  </si>
+  <si>
+    <t>02/10/2018</t>
+  </si>
+  <si>
+    <t>Nearly Perfect</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights in the newly renovated La Quinta. The room was very nice and spacious for our dogs. Bed was very comfortable and seemed newer. It was very quiet on our floor and check in was seamless. Our only complaint was both nights when we got in from being with family which was late both nights, there were people in the pool area smoking and drinking. You could smell the smoke all the down the hallway. My husband observed the front desk girl interacting with them as if she knew them or was doing them a favor. Not sure why that was allowed to fly in a smoke feee hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>We stayed for 2 nights in the newly renovated La Quinta. The room was very nice and spacious for our dogs. Bed was very comfortable and seemed newer. It was very quiet on our floor and check in was seamless. Our only complaint was both nights when we got in from being with family which was late both nights, there were people in the pool area smoking and drinking. You could smell the smoke all the down the hallway. My husband observed the front desk girl interacting with them as if she knew them or was doing them a favor. Not sure why that was allowed to fly in a smoke feee hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r555858160-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>555858160</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Relaxing Stay!</t>
+  </si>
+  <si>
+    <t>Nice hotel convenient location to several restaurants I would recommend this hotel to anyone. Comfortable Beds and large bathrooms. I personally didn’t get to swim but a very nice swimming pool area just the right size!MoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel convenient location to several restaurants I would recommend this hotel to anyone. Comfortable Beds and large bathrooms. I personally didn’t get to swim but a very nice swimming pool area just the right size!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r554025751-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>554025751</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We had a great stay! Check in was smooth, room was clean, furnishings was in good shape. Only negative was the beds were a little harder than I like.  We were on the 4th floor and it was very quiet at night. Would not hesitate to stay here again when back in Mansfield.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded January 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2018</t>
+  </si>
+  <si>
+    <t>We had a great stay! Check in was smooth, room was clean, furnishings was in good shape. Only negative was the beds were a little harder than I like.  We were on the 4th floor and it was very quiet at night. Would not hesitate to stay here again when back in Mansfield.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r550756607-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>550756607</t>
+  </si>
+  <si>
+    <t>01/01/2018</t>
+  </si>
+  <si>
+    <t>Not Much Better than a Trucker's Motel</t>
+  </si>
+  <si>
+    <t>Pros: The room had a switch next to the bed that would turn off the light by the door. Unfortunately, that's all I can think of. Cons: Only one luggage cart available, noisy people on the 2nd floor all day, pool area was closed, clerk spent 5 minutes on a personal call and ignored me when I first arrived to check in, clerk didn't arrive for checkout until I called the desk and it rang two times, rooms still look at least 30 years old after supposed "remodeling," shower pressure is weak and only runs well with a stream that's the diameter of a garden hose, missing usual items provided in the rooms such as cups, blowdryer, iron, etc. This hotel should be downgraded from a 2.5 star to a 2.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Pros: The room had a switch next to the bed that would turn off the light by the door. Unfortunately, that's all I can think of. Cons: Only one luggage cart available, noisy people on the 2nd floor all day, pool area was closed, clerk spent 5 minutes on a personal call and ignored me when I first arrived to check in, clerk didn't arrive for checkout until I called the desk and it rang two times, rooms still look at least 30 years old after supposed "remodeling," shower pressure is weak and only runs well with a stream that's the diameter of a garden hose, missing usual items provided in the rooms such as cups, blowdryer, iron, etc. This hotel should be downgraded from a 2.5 star to a 2.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r550656703-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>550656703</t>
+  </si>
+  <si>
+    <t>Awesome!!!  We thoroughly enjoyed our stay.  I called about an hour before we arrived and they had a room for us.</t>
+  </si>
+  <si>
+    <t>We had a great experience.  My wife and I enjoyed our stay and called last minute to get a room and they saved one for us.  Thank you!!!  This was a great experience for us. I definitely recommend staying here MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a great experience.  My wife and I enjoyed our stay and called last minute to get a room and they saved one for us.  Thank you!!!  This was a great experience for us. I definitely recommend staying here More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r550345307-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>550345307</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>unsatisfactory</t>
+  </si>
+  <si>
+    <t>The hotel rooms look "tired".  No Kleenex.  No extra rolls of toilet tissue.  No cleaning when desired. Items stolen from my make up kit.  Mansfield Texas, Room 312 Telephone didn't work.  Wi Fi slow and when I asked the front desk they had no clue how to be helpful, such as a simple, wait a few moments and try again because the hotel was full that night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>The hotel rooms look "tired".  No Kleenex.  No extra rolls of toilet tissue.  No cleaning when desired. Items stolen from my make up kit.  Mansfield Texas, Room 312 Telephone didn't work.  Wi Fi slow and when I asked the front desk they had no clue how to be helpful, such as a simple, wait a few moments and try again because the hotel was full that night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r547056554-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>547056554</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded December 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546303453-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>546303453</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent people, well kept and updated facility</t>
+  </si>
+  <si>
+    <t>Many hotels remodel, yet have unmotivated or disinterested staff and ownership.The staff at this La Quinta is pleasant, competent, and professional at all times, even with petty difficult people.The facility is well kept and they have just finished redoing the bath vanities, lighting, and paint.  Carpet has done in alll the rooms I’ve been in and i heard there is more work scheduled. I  heartily recommend this hotel, and have seen some infantile custoers making a scene at the front counter, thinking they look big...just like the thinking of some of the writers of  negative reviews below.  I’ve stayed here scores of times in the last couple of years, and the staff is more helpful with a friendlier outlook than other hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Many hotels remodel, yet have unmotivated or disinterested staff and ownership.The staff at this La Quinta is pleasant, competent, and professional at all times, even with petty difficult people.The facility is well kept and they have just finished redoing the bath vanities, lighting, and paint.  Carpet has done in alll the rooms I’ve been in and i heard there is more work scheduled. I  heartily recommend this hotel, and have seen some infantile custoers making a scene at the front counter, thinking they look big...just like the thinking of some of the writers of  negative reviews below.  I’ve stayed here scores of times in the last couple of years, and the staff is more helpful with a friendlier outlook than other hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546210726-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>546210726</t>
+  </si>
+  <si>
+    <t>Excellent service and the breakfast was great</t>
+  </si>
+  <si>
+    <t>The hotel was clean and in a very good location the breakfast was good a lot to choose from room was very comfortable and the front lady desk were very nice. I really didn't have any complaints for this hotelMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was clean and in a very good location the breakfast was good a lot to choose from room was very comfortable and the front lady desk were very nice. I really didn't have any complaints for this hotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546187623-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>546187623</t>
+  </si>
+  <si>
+    <t>Visit cancer patients</t>
+  </si>
+  <si>
+    <t>Will stay there again and will recommend to friends. The location is very convenient to most needs on our trip especially to the hospital where friend was being treated. If I need to go back to Mansfield I will stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Will stay there again and will recommend to friends. The location is very convenient to most needs on our trip especially to the hospital where friend was being treated. If I need to go back to Mansfield I will stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546153781-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>546153781</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>I am a very happy customer</t>
+  </si>
+  <si>
+    <t>My experience was great from the time I walked in the door. The staff was very professional and happy. The lobby was bright and clean. The room was clean and inviting. The bathroom was very nice size and very clean. I had just come from Las Vegas and the bed was very uncomfortable but the bed here was like being at home and I slept very well.MoreShow less</t>
+  </si>
+  <si>
+    <t>My experience was great from the time I walked in the door. The staff was very professional and happy. The lobby was bright and clean. The room was clean and inviting. The bathroom was very nice size and very clean. I had just come from Las Vegas and the bed was very uncomfortable but the bed here was like being at home and I slept very well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546026682-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>546026682</t>
+  </si>
+  <si>
+    <t>I love staying at La Quinta Inn &amp; Suites Mansfield!</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel multiple times.  I've always experienced great customer service.  The rooms have always been in great condition.  It's close to restaurants and shopping locations.  During my last stay they were going through a remodel.  It did not affect my stay and I am excited to see what everything looks like now.  I would recommend this hotel to family, friends, and anyone looking for a place to stay in Mansfield!MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel multiple times.  I've always experienced great customer service.  The rooms have always been in great condition.  It's close to restaurants and shopping locations.  During my last stay they were going through a remodel.  It did not affect my stay and I am excited to see what everything looks like now.  I would recommend this hotel to family, friends, and anyone looking for a place to stay in Mansfield!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r544901190-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>544901190</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>La Quinta Mansfield is a great place for the Holidays.  Thanks Rebecca and the rest of the staff.</t>
+  </si>
+  <si>
+    <t>My Mother lives at Watercrest which is basically next door to La Quinta Inn &amp; Suites.  Always clean, always accommodating.
+We drove from Santa Barbara, CA and arrived one day early for our seven day Thanksgiving reservation.  The La Quinta reservations rep said we would have to stay somewhere else one night before checking in the next day. We called La Quinta Inn Mansfield directly and they were able to check us in one day early in spite of construction.  We have two dogs-one is a puppy-so we really appreciated the room close to the stairs so we could get outside fast.
+Great staff, great room.
+No room cleaning on Thanksgiving Day, but the young man behind the desk that night was very accommodating by making sure clean towels were available.  
+(By the way:  Those Cowboy fans were already pissed when they came back that night, so don’t let them get you down.)
+Didn’t see much of the day staff as we gone during the day.  Rebecca and the other night staff are fantastic.  
+We are “La Quinta Returns” members so we stay at other La Quintas on holiday road trips.
+La Quinta Inn &amp; Suites Mansfield is the only one which does not have biscuits &amp; gravy on weekends.
+Thought it was funny since I had just written a review, on a Saturday morning, complementing another La Quinta about their biscuits &amp; gravy, just before coming down stairs for...My Mother lives at Watercrest which is basically next door to La Quinta Inn &amp; Suites.  Always clean, always accommodating.We drove from Santa Barbara, CA and arrived one day early for our seven day Thanksgiving reservation.  The La Quinta reservations rep said we would have to stay somewhere else one night before checking in the next day. We called La Quinta Inn Mansfield directly and they were able to check us in one day early in spite of construction.  We have two dogs-one is a puppy-so we really appreciated the room close to the stairs so we could get outside fast.Great staff, great room.No room cleaning on Thanksgiving Day, but the young man behind the desk that night was very accommodating by making sure clean towels were available.  (By the way:  Those Cowboy fans were already pissed when they came back that night, so don’t let them get you down.)Didn’t see much of the day staff as we gone during the day.  Rebecca and the other night staff are fantastic.  We are “La Quinta Returns” members so we stay at other La Quintas on holiday road trips.La Quinta Inn &amp; Suites Mansfield is the only one which does not have biscuits &amp; gravy on weekends.Thought it was funny since I had just written a review, on a Saturday morning, complementing another La Quinta about their biscuits &amp; gravy, just before coming down stairs for breakfast to discover the local “No Biscuits &amp; Gravy On Weekends” policy.  You get biscuits on Monday but no gravy.  Oh well, no biggie, really.Thanks for another pleasant holiday stay in Mansfield.Jay, Anne, Topeka &amp; BakerMoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded December 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2017</t>
+  </si>
+  <si>
+    <t>My Mother lives at Watercrest which is basically next door to La Quinta Inn &amp; Suites.  Always clean, always accommodating.
+We drove from Santa Barbara, CA and arrived one day early for our seven day Thanksgiving reservation.  The La Quinta reservations rep said we would have to stay somewhere else one night before checking in the next day. We called La Quinta Inn Mansfield directly and they were able to check us in one day early in spite of construction.  We have two dogs-one is a puppy-so we really appreciated the room close to the stairs so we could get outside fast.
+Great staff, great room.
+No room cleaning on Thanksgiving Day, but the young man behind the desk that night was very accommodating by making sure clean towels were available.  
+(By the way:  Those Cowboy fans were already pissed when they came back that night, so don’t let them get you down.)
+Didn’t see much of the day staff as we gone during the day.  Rebecca and the other night staff are fantastic.  
+We are “La Quinta Returns” members so we stay at other La Quintas on holiday road trips.
+La Quinta Inn &amp; Suites Mansfield is the only one which does not have biscuits &amp; gravy on weekends.
+Thought it was funny since I had just written a review, on a Saturday morning, complementing another La Quinta about their biscuits &amp; gravy, just before coming down stairs for...My Mother lives at Watercrest which is basically next door to La Quinta Inn &amp; Suites.  Always clean, always accommodating.We drove from Santa Barbara, CA and arrived one day early for our seven day Thanksgiving reservation.  The La Quinta reservations rep said we would have to stay somewhere else one night before checking in the next day. We called La Quinta Inn Mansfield directly and they were able to check us in one day early in spite of construction.  We have two dogs-one is a puppy-so we really appreciated the room close to the stairs so we could get outside fast.Great staff, great room.No room cleaning on Thanksgiving Day, but the young man behind the desk that night was very accommodating by making sure clean towels were available.  (By the way:  Those Cowboy fans were already pissed when they came back that night, so don’t let them get you down.)Didn’t see much of the day staff as we gone during the day.  Rebecca and the other night staff are fantastic.  We are “La Quinta Returns” members so we stay at other La Quintas on holiday road trips.La Quinta Inn &amp; Suites Mansfield is the only one which does not have biscuits &amp; gravy on weekends.Thought it was funny since I had just written a review, on a Saturday morning, complementing another La Quinta about their biscuits &amp; gravy, just before coming down stairs for breakfast to discover the local “No Biscuits &amp; Gravy On Weekends” policy.  You get biscuits on Monday but no gravy.  Oh well, no biggie, really.Thanks for another pleasant holiday stay in Mansfield.Jay, Anne, Topeka &amp; BakerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r540332019-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>540332019</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staffing</t>
+  </si>
+  <si>
+    <t>Ms. Rebeka, at the front desk is a joy.  Very considerate and helpful. It had been a long,  grueling  drive, and her pleasant assistance was greatly appreciated  Our room was very clean everything worked properly.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Ms. Rebeka, at the front desk is a joy.  Very considerate and helpful. It had been a long,  grueling  drive, and her pleasant assistance was greatly appreciated  Our room was very clean everything worked properly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r539991838-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>539991838</t>
+  </si>
+  <si>
+    <t>Emergencies don't matter</t>
+  </si>
+  <si>
+    <t>My girlfriend and I try to do a date night away from the children and we had an emergency and had to cut our stay short we were only there a couple hours however the manager said that we were there over 5 hours I ask for a refund she refused I'm also being charged twice on my account for the stay over $140 each time. I'm very frustrated and upset I would not recommend this place to anybody anymore. I don't believe it was handled appropriately. I should have received a refundMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>My girlfriend and I try to do a date night away from the children and we had an emergency and had to cut our stay short we were only there a couple hours however the manager said that we were there over 5 hours I ask for a refund she refused I'm also being charged twice on my account for the stay over $140 each time. I'm very frustrated and upset I would not recommend this place to anybody anymore. I don't believe it was handled appropriately. I should have received a refundMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r539884305-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>539884305</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Heaven</t>
+  </si>
+  <si>
+    <t>The Staff is A-1. The service and accommodations are far , far superior to other Well know chains After losing Everything from Hurricane Harvey , The staff made me feel as one of the family  Prim and ProperMoreShow less</t>
+  </si>
+  <si>
+    <t>The Staff is A-1. The service and accommodations are far , far superior to other Well know chains After losing Everything from Hurricane Harvey , The staff made me feel as one of the family  Prim and ProperMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r509207422-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>509207422</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Lot's spent on the building; little on the staff</t>
+  </si>
+  <si>
+    <t>Adequate; relatively new and convenient (on this trip).  Price was very good ... room comfortable and relatively clean; bath needed attention.  Breakfast was some of the ususal ... but hot dishes needed to be hotter; selection was smaller than usual and quality below.  Not a big deal; there are plenty of good breakfast places in the area; just disappointing.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Adequate; relatively new and convenient (on this trip).  Price was very good ... room comfortable and relatively clean; bath needed attention.  Breakfast was some of the ususal ... but hot dishes needed to be hotter; selection was smaller than usual and quality below.  Not a big deal; there are plenty of good breakfast places in the area; just disappointing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r501863484-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>501863484</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r500596006-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>500596006</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>No a/c in room</t>
+  </si>
+  <si>
+    <t>No a/c in room just hot air.  Thought it would take a little while to cool but woke up at 2am and it was hot and humid.  Too tired to move at that time so waited til morning.  Told manager but not even an apology.  Instead said ok will look at it and went outside to smoke.  She assumed it had been a comp room we stayed in when in reality we paid.  We had occupied 2 rooms since kids were with us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>No a/c in room just hot air.  Thought it would take a little while to cool but woke up at 2am and it was hot and humid.  Too tired to move at that time so waited til morning.  Told manager but not even an apology.  Instead said ok will look at it and went outside to smoke.  She assumed it had been a comp room we stayed in when in reality we paid.  We had occupied 2 rooms since kids were with us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r497720270-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>497720270</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>After departing</t>
+  </si>
+  <si>
+    <t>Overall the hotel was okay. However the room was not the cleanest and the beds didn't look as though the sheets were changed before I checked in. The service was great and I really enjoyed the location of the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Overall the hotel was okay. However the room was not the cleanest and the beds didn't look as though the sheets were changed before I checked in. The service was great and I really enjoyed the location of the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r494687493-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>494687493</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Hannah Rocks</t>
+  </si>
+  <si>
+    <t>I found Hannah to be extremely polite and helpful.  She was open, friendly, and willing to answer any and all questions (unlike the earlier individual behind the counter at check-in--I have to say she was very rude).MoreShow less</t>
+  </si>
+  <si>
+    <t>I found Hannah to be extremely polite and helpful.  She was open, friendly, and willing to answer any and all questions (unlike the earlier individual behind the counter at check-in--I have to say she was very rude).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r494657922-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>494657922</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r486042568-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>486042568</t>
+  </si>
+  <si>
+    <t>05/20/2017</t>
+  </si>
+  <si>
+    <t>Disappointing Mansfield La Quinta</t>
+  </si>
+  <si>
+    <t>I am normally a fan of La Quinta but this one totally misses the mark. Filthy rooms, reservations mix ups, bad A/C and poor cleaning staff. Supplies in room not properly replenished on 3 night stay. Microwave was place where plug would not reach.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>I am normally a fan of La Quinta but this one totally misses the mark. Filthy rooms, reservations mix ups, bad A/C and poor cleaning staff. Supplies in room not properly replenished on 3 night stay. Microwave was place where plug would not reach.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r479654513-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>479654513</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>Great Folks Great Hotel</t>
+  </si>
+  <si>
+    <t>Always stay here on way to far North Texas !! Check in &amp; check out were excellent !! Room was fine ! Breakfast was good ! The check in &amp; checkout were seamless as usual here !! Dining places are nearby !!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r459741360-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>459741360</t>
+  </si>
+  <si>
+    <t>02/14/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>This is a great hotel for the price. We love the decor and the room was spacious and quiet. We had two complaints. Check in took more than 20 minutes because there was a very large group that arrived right before we did, so that was a bummer to have to wait that long just to get our room. The other issue was that the pool was FREEZING, which was disappointing since our daughter was really looking forward to swimming.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r452538042-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>452538042</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Love this Hotel</t>
+  </si>
+  <si>
+    <t>Love staying at this hotel. Always a very nice hotel to stay at when I am in the Dallas -Ft. Worth area. Staff is always friendly, rooms are always clean. Breakfast is okay, I am not much of a continental breakfast eater but it is good for those that are.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r404324489-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>404324489</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>July stay</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable. We have stayed at this La Quinta before and have always appreciated the friendliness and helpfulness of the staff. I'm sure we will stay there again in the future. Food is always good, alsoMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Christy B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable. We have stayed at this La Quinta before and have always appreciated the friendliness and helpfulness of the staff. I'm sure we will stay there again in the future. Food is always good, alsoMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r399645403-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>399645403</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>First Visit to Texas!</t>
+  </si>
+  <si>
+    <t>There was a shortage on face towels and was less and less everyday. Also the showers and sinks are not average height for the average person. We also had a slight fly and gnat problem in our room as well as our room wasn't vacuumed daily. Other than that service at the front desk was excellent and the manager Angelina did her best accommodate accordingly. MoreShow less</t>
+  </si>
+  <si>
+    <t>There was a shortage on face towels and was less and less everyday. Also the showers and sinks are not average height for the average person. We also had a slight fly and gnat problem in our room as well as our room wasn't vacuumed daily. Other than that service at the front desk was excellent and the manager Angelina did her best accommodate accordingly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r399384165-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>399384165</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>We stay at many La Quintas but this was the worst experience ever with customer service. Front desk worker(Dawn) was very rude 2 nights in a row. Don't ask her for any help b/c she will act put out that she has to do anything. Totally unacceptable!! Room not cleaned!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay at many La Quintas but this was the worst experience ever with customer service. Front desk worker(Dawn) was very rude 2 nights in a row. Don't ask her for any help b/c she will act put out that she has to do anything. Totally unacceptable!! Room not cleaned!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r398644404-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>398644404</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Looks were deceiving......BEWARE!</t>
+  </si>
+  <si>
+    <t>After realizing we had not made a reservation at a nearby Hilton property that we thought we had (and they were sold out for the night), we saw this property nearby. It looked great so we decided to give it a try.  Big mistake.  Looked great from the street and the lobby was bright and clean, though the desk clerk was not very helpful, informative, or professional.   Our king room was nice at first look....comfy bed, nice roomy bathroom, fridge/microwave, all looked clean.  We later found stains on the sheets, and mold/moisture growing behind the granite in the tub/shower.  We were told they will be doing upgrades to the rooms in the near future, but that is not acceptable when you are there now.  We usually always check Trip Advisor first before making a reservation anywhere, and the one time we didn't........BAM!  The previous reviews would have given us adequate warning.  We learned our lesson the hard way.  We also lost trust in the La Quinta brand.MoreShow less</t>
+  </si>
+  <si>
+    <t>Angelina B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded August 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2016</t>
+  </si>
+  <si>
+    <t>After realizing we had not made a reservation at a nearby Hilton property that we thought we had (and they were sold out for the night), we saw this property nearby. It looked great so we decided to give it a try.  Big mistake.  Looked great from the street and the lobby was bright and clean, though the desk clerk was not very helpful, informative, or professional.   Our king room was nice at first look....comfy bed, nice roomy bathroom, fridge/microwave, all looked clean.  We later found stains on the sheets, and mold/moisture growing behind the granite in the tub/shower.  We were told they will be doing upgrades to the rooms in the near future, but that is not acceptable when you are there now.  We usually always check Trip Advisor first before making a reservation anywhere, and the one time we didn't........BAM!  The previous reviews would have given us adequate warning.  We learned our lesson the hard way.  We also lost trust in the La Quinta brand.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r398212627-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>398212627</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r384930754-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>384930754</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r384223975-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>384223975</t>
+  </si>
+  <si>
+    <t>06/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great services </t>
+  </si>
+  <si>
+    <t>Heather was a professional host that exceeded our help.thanks to her we stayed this long. (40 days).we will stay here again due to the services here.this is the best hotel we have stayed at hands down...   MoreShow less</t>
+  </si>
+  <si>
+    <t>Angelina B, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2016</t>
+  </si>
+  <si>
+    <t>Heather was a professional host that exceeded our help.thanks to her we stayed this long. (40 days).we will stay here again due to the services here.this is the best hotel we have stayed at hands down...   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r383667962-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>383667962</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>You can see, from the moment you walk in this place is very nice. Staff was kind, upgrades are coming along. You learn to appreciate the smiling faces and great conversation every morning. This is the place to be in Mansfield!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>You can see, from the moment you walk in this place is very nice. Staff was kind, upgrades are coming along. You learn to appreciate the smiling faces and great conversation every morning. This is the place to be in Mansfield!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r382445957-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>382445957</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Recent Stay in Mansfield</t>
+  </si>
+  <si>
+    <t>We have family in the area and always stay at the LaQuinta with no problems but this recent stay we were very disappointed in the hotel and the room. Room in bad need of paint and cleaning.  Bedspread had stains. Bathroom had cracked or missing tiles.  Upon entering the hot room it smelled of urine and after turning on the AC it smelled of mold and I honestly say the hotel has the worst coffee I have ever had. I will have to rethink about ever staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We have family in the area and always stay at the LaQuinta with no problems but this recent stay we were very disappointed in the hotel and the room. Room in bad need of paint and cleaning.  Bedspread had stains. Bathroom had cracked or missing tiles.  Upon entering the hot room it smelled of urine and after turning on the AC it smelled of mold and I honestly say the hotel has the worst coffee I have ever had. I will have to rethink about ever staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r382204070-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>382204070</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Confusing, Poor Execution</t>
+  </si>
+  <si>
+    <t>They say the devil is in the details and that was true of our experience at this La Quinta. We arrived to a very inviting car port entry with lots of flowers. However, right above the front door there were lots of cob webs and a poor sheet rock patch repair on ceiling. The front doors open to a large updated lobby. However, no one was at the front desk. I waited several minutes and then a young girl arrives. She is friendly but scattered and unorganized. We go to the elevator and notice that hallways are updated, only to get off the elevator and smell a musty cigarette smell in the hallways. We open the door to the room and it looks like it had been updated, but the carpet, curtains and some of the furniture were stuck in the 1970's. One a positive note, the bed was great and the breakfast was ok. Overall, this place has some promise but you can tell the owner and management are not focused. If you had to stay with La Quinta, I would drive over to Burleson or the South Arlington location. Both provided a better overall experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>They say the devil is in the details and that was true of our experience at this La Quinta. We arrived to a very inviting car port entry with lots of flowers. However, right above the front door there were lots of cob webs and a poor sheet rock patch repair on ceiling. The front doors open to a large updated lobby. However, no one was at the front desk. I waited several minutes and then a young girl arrives. She is friendly but scattered and unorganized. We go to the elevator and notice that hallways are updated, only to get off the elevator and smell a musty cigarette smell in the hallways. We open the door to the room and it looks like it had been updated, but the carpet, curtains and some of the furniture were stuck in the 1970's. One a positive note, the bed was great and the breakfast was ok. Overall, this place has some promise but you can tell the owner and management are not focused. If you had to stay with La Quinta, I would drive over to Burleson or the South Arlington location. Both provided a better overall experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r361867588-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>361867588</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>The hotel was clean and newly remodeled. We stayed 4 nights with no problems. The breakfast was decent and the staff was helpful and friendly. If I'm ever back in Mansfield, I will stay here for sure!Definitely the nicest LaQuinta I've ever stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The hotel was clean and newly remodeled. We stayed 4 nights with no problems. The breakfast was decent and the staff was helpful and friendly. If I'm ever back in Mansfield, I will stay here for sure!Definitely the nicest LaQuinta I've ever stayed at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r360463124-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>360463124</t>
+  </si>
+  <si>
+    <t>03/31/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Stay</t>
+  </si>
+  <si>
+    <t>Upon arriving at tge LaQuinta Mansfield on March 25th, 2016, i was greeted with an inviting smile and a friendly positive attitude from Rhyan. I had decided to stay at this location because i frequent the VFW every friday nite thats around the corner. At first I wasnt sure it was going to be a good stay due to the renovations going on, however to my surprise and unless i was coming or going i ciuldnt tell. The staff was very polite n courteous. In fact because of the positive staff and location i will be returning on a regular basis. I recommend this hotel to others if your looking for a hotel thats clean with a professional friendly staff. To me that makes all the difference. Thank you and i will be back April 1st, 2016. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Upon arriving at tge LaQuinta Mansfield on March 25th, 2016, i was greeted with an inviting smile and a friendly positive attitude from Rhyan. I had decided to stay at this location because i frequent the VFW every friday nite thats around the corner. At first I wasnt sure it was going to be a good stay due to the renovations going on, however to my surprise and unless i was coming or going i ciuldnt tell. The staff was very polite n courteous. In fact because of the positive staff and location i will be returning on a regular basis. I recommend this hotel to others if your looking for a hotel thats clean with a professional friendly staff. To me that makes all the difference. Thank you and i will be back April 1st, 2016. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r360182288-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>360182288</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>The new renovations Are amazing, good job! I stay a few nights, everyone one was very friendly,  room was clean, bed was great, plenty of hot water for the shower! I will stay here again when i come back!Thanks Angelina for all the help!MoreShow less</t>
+  </si>
+  <si>
+    <t>The new renovations Are amazing, good job! I stay a few nights, everyone one was very friendly,  room was clean, bed was great, plenty of hot water for the shower! I will stay here again when i come back!Thanks Angelina for all the help!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r357136310-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>357136310</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Quality for the Price </t>
+  </si>
+  <si>
+    <t>The hotel is going through a renovation which means materials lying around the halls and workout room, but I'm sure the hotel will look fantastic once all the work is completed. Our queen beds were very comfortable and the bathroom was very roomy. We did find some crumbs on the carpet and desk that had not been cleaned, but overall, the room was in good shape. Our kids enjoyed the pool, although it was VERY cold. I used the treadmill in the workout room, even though, as mentioned above, there was a mess left by the workers. We appreciated a  variety of breakfast items, waffles, fruit, oatmeal, cold cereal, eggs, sausage, bagels, toast, and more. However, the hotel could use more tables and chairs to accommodate the amount of guests who were there for breakfast, as many people either had to stand or take food back to their rooms. Overall, we had a great stay and will come back when in the area again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is going through a renovation which means materials lying around the halls and workout room, but I'm sure the hotel will look fantastic once all the work is completed. Our queen beds were very comfortable and the bathroom was very roomy. We did find some crumbs on the carpet and desk that had not been cleaned, but overall, the room was in good shape. Our kids enjoyed the pool, although it was VERY cold. I used the treadmill in the workout room, even though, as mentioned above, there was a mess left by the workers. We appreciated a  variety of breakfast items, waffles, fruit, oatmeal, cold cereal, eggs, sausage, bagels, toast, and more. However, the hotel could use more tables and chairs to accommodate the amount of guests who were there for breakfast, as many people either had to stand or take food back to their rooms. Overall, we had a great stay and will come back when in the area again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r356450713-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>356450713</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff.  Renovations look AMAZING. Saw a lot of hard work happening to bring the place together. Breakfast was great, enjoyed the flavored coffee creamers. Be back soon to see all the changes! MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly and helpful staff.  Renovations look AMAZING. Saw a lot of hard work happening to bring the place together. Breakfast was great, enjoyed the flavored coffee creamers. Be back soon to see all the changes! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r328804989-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>328804989</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Birthday trip to Dallas</t>
+  </si>
+  <si>
+    <t>Very nice place to stay in. Close to restaurants and a quiet location. They provide a shuttle to AT&amp;T Stadium for Cowboys game. Reasonably priced. Do not expect too much from the free breakfast, after all it's free.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r323643871-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>323643871</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>Had to get a last minute hotel in a Saturday night and we came here. The prices aren't bad and the room was nice, can't ask for much more than that. The room had plenty of space and the bed was comfy. The bedding was very nice, too. My one problem was that the shower head was too low (see picture), but that happens a lot. Enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded December 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2015</t>
+  </si>
+  <si>
+    <t>Had to get a last minute hotel in a Saturday night and we came here. The prices aren't bad and the room was nice, can't ask for much more than that. The room had plenty of space and the bed was comfy. The bedding was very nice, too. My one problem was that the shower head was too low (see picture), but that happens a lot. Enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r319645951-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>319645951</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Nice, but far</t>
+  </si>
+  <si>
+    <t>I would say this hotel is acceptable. It's not close to anything, so expect a 30-45 min drive everywhere. The hotel itself is clean and the staff was friendly. The room had a moldy smell to it. I sprayed febreeze, but it still smelled. The room looked clean and was spacious. The beds were comfortable. The area is quiet. They have a fridge and microwave. Shampoo and soap is provided. The AC worked good, but we did have to put it at 66 to cool the room. The break was was great. They have waffles, hard boiled eggs, scrambled eggs, sausage patties, yogurt, cereal and fruit. I can't say much about the pool since I didn't use it. It is an indoor pool and they also have a gym. The were also offering a gym pass to lifetime fitness. I would probably stay closer to main attractions if I ever return to the Dallas area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded October 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2015</t>
+  </si>
+  <si>
+    <t>I would say this hotel is acceptable. It's not close to anything, so expect a 30-45 min drive everywhere. The hotel itself is clean and the staff was friendly. The room had a moldy smell to it. I sprayed febreeze, but it still smelled. The room looked clean and was spacious. The beds were comfortable. The area is quiet. They have a fridge and microwave. Shampoo and soap is provided. The AC worked good, but we did have to put it at 66 to cool the room. The break was was great. They have waffles, hard boiled eggs, scrambled eggs, sausage patties, yogurt, cereal and fruit. I can't say much about the pool since I didn't use it. It is an indoor pool and they also have a gym. The were also offering a gym pass to lifetime fitness. I would probably stay closer to main attractions if I ever return to the Dallas area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r319096847-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>319096847</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Four day stay</t>
+  </si>
+  <si>
+    <t>Loved this hotel!  The location is great.  Your are close to restaurants, pizza place and donuts shop within walking distance.  The room was very clean with micro wave and fridge.  Breakfast was OK and always plenty of everything.  The front desk staff and cleaning staff were all very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Loved this hotel!  The location is great.  Your are close to restaurants, pizza place and donuts shop within walking distance.  The room was very clean with micro wave and fridge.  Breakfast was OK and always plenty of everything.  The front desk staff and cleaning staff were all very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r306494724-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>306494724</t>
+  </si>
+  <si>
+    <t>09/02/2015</t>
+  </si>
+  <si>
+    <t>Fantastic stay!</t>
+  </si>
+  <si>
+    <t>We stayed at this establishment in the second week of July for the Little League World Series at Big League Dreams (right down the road) and we were very satisfied with the entire experience.  The breakfast buffet was terrific, the rooms were clean, comfortable and spacious and the staff was very helpful.  The hotel is conveniently located close to the freeway (but quiet), shopping and restaurants.  The parking is secure and the grounds are very well maintained.  The one drawback to our experience was the pool.  It's indoors, and the water temp is nice, but the decking is old, the walls are cracked and moldy along the baseboards below the windows (facing the parking lot) and the room seriously lacks visual appeal.  The Jacuzzi was clean (as was the pool) and plenty of towels were available.  The weight room was nice, but the equipment needs fine tuning.  Overall, we were satisfied with our stay and would recommend this hotel to anyone who needs an extended stay (or even a night).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this establishment in the second week of July for the Little League World Series at Big League Dreams (right down the road) and we were very satisfied with the entire experience.  The breakfast buffet was terrific, the rooms were clean, comfortable and spacious and the staff was very helpful.  The hotel is conveniently located close to the freeway (but quiet), shopping and restaurants.  The parking is secure and the grounds are very well maintained.  The one drawback to our experience was the pool.  It's indoors, and the water temp is nice, but the decking is old, the walls are cracked and moldy along the baseboards below the windows (facing the parking lot) and the room seriously lacks visual appeal.  The Jacuzzi was clean (as was the pool) and plenty of towels were available.  The weight room was nice, but the equipment needs fine tuning.  Overall, we were satisfied with our stay and would recommend this hotel to anyone who needs an extended stay (or even a night).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r304963852-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>304963852</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>La Quinta</t>
+  </si>
+  <si>
+    <t>Very good and comfortable beds. Neat and well maintained by facility staff  . Breakfast was above average. Staff service was good with clean lobby.  I will definitely stay here during my next visit and recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2015</t>
+  </si>
+  <si>
+    <t>Very good and comfortable beds. Neat and well maintained by facility staff  . Breakfast was above average. Staff service was good with clean lobby.  I will definitely stay here during my next visit and recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r303579870-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>303579870</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>Soccer hotel</t>
+  </si>
+  <si>
+    <t>We stay at this hotel regularly for soccer games.  The staff are very friendly, the place is clean.  We enjoy the fact that the the pool and work-out facilities are open 24 hours.  There is also a delicious pizza place (Mama's)  right across the parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded August 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2015</t>
+  </si>
+  <si>
+    <t>We stay at this hotel regularly for soccer games.  The staff are very friendly, the place is clean.  We enjoy the fact that the the pool and work-out facilities are open 24 hours.  There is also a delicious pizza place (Mama's)  right across the parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r294294016-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>294294016</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>The stay at LQ Mansfield was not on the itinerary, we just got too tired to keep driving. I booked online, and five minutes later, after we exited the freeway and made the u-turn, we were checking in. The hotel is in very good condition, clean and experienced, friendly staff. Pet policy seals the deal for us, no fee, no hassle !MoreShow less</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>The stay at LQ Mansfield was not on the itinerary, we just got too tired to keep driving. I booked online, and five minutes later, after we exited the freeway and made the u-turn, we were checking in. The hotel is in very good condition, clean and experienced, friendly staff. Pet policy seals the deal for us, no fee, no hassle !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r293568999-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>293568999</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>great weekend</t>
+  </si>
+  <si>
+    <t>we checked in Friday night everything was awesome room was wonderful the only thing was the room was a bit hot even at the AC being 60 degrees but that was fixed immediately.We left Saturday morning came back in the afternoon and the room was spotless, customer services was great too.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded July 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2015</t>
+  </si>
+  <si>
+    <t>we checked in Friday night everything was awesome room was wonderful the only thing was the room was a bit hot even at the AC being 60 degrees but that was fixed immediately.We left Saturday morning came back in the afternoon and the room was spotless, customer services was great too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r283677684-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>283677684</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r270295407-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>270295407</t>
+  </si>
+  <si>
+    <t>05/05/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>This is a nice hotel and the staff is very friendly.  The pool is open 24 hours so it was great for the kids when coming in late.  The breakfast was very good, including the eggs.  The rooms were clean as well as the bathroom.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded May 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2015</t>
+  </si>
+  <si>
+    <t>This is a nice hotel and the staff is very friendly.  The pool is open 24 hours so it was great for the kids when coming in late.  The breakfast was very good, including the eggs.  The rooms were clean as well as the bathroom.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r269177840-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>269177840</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>La Quinta Mansfield - Good Value</t>
+  </si>
+  <si>
+    <t>We stayed at this location to attend the Scarborough Renaissance Faire.  This hotel was across the street from a Petsmart with a Petshotel, so we were able to take advantage of doggy day care for our old whippet and still have him sleep with us in the hotel at night.  La Quinta is pet friendly, a plus for me.   Only issue this trip was the internet was down all weekend.  Bummer.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this location to attend the Scarborough Renaissance Faire.  This hotel was across the street from a Petsmart with a Petshotel, so we were able to take advantage of doggy day care for our old whippet and still have him sleep with us in the hotel at night.  La Quinta is pet friendly, a plus for me.   Only issue this trip was the internet was down all weekend.  Bummer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r264651109-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>264651109</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Great base</t>
+  </si>
+  <si>
+    <t>The hotel staff were all very helpful, friendly and polite. The hotel was very clean and the complimentary breakfast was a great bonus. We were visiting family in the area so the hotel was a great base for us. It has a small business room were everything worked, even the the printer had lots of paper.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded April 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2015</t>
+  </si>
+  <si>
+    <t>The hotel staff were all very helpful, friendly and polite. The hotel was very clean and the complimentary breakfast was a great bonus. We were visiting family in the area so the hotel was a great base for us. It has a small business room were everything worked, even the the printer had lots of paper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r264813873-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>264813873</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Great As Usual</t>
+  </si>
+  <si>
+    <t>We make a stop at this hotel about 4 times a year. Always top shelf service, breakfast included , received water at check in at the desk !! Checkin clerk friendly and polite !! Checkout could not have been easier.MoreShow less</t>
+  </si>
+  <si>
+    <t>We make a stop at this hotel about 4 times a year. Always top shelf service, breakfast included , received water at check in at the desk !! Checkin clerk friendly and polite !! Checkout could not have been easier.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r260700605-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>260700605</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t>Awesome location</t>
+  </si>
+  <si>
+    <t>We stayed for longer than we anticipated due to the ice storms a few weeks ago. Hotel is walking distance to shops and eateries which proved to be very important since we were unable to drive! Staff and managers were very accommodating with the weather conditions, I saw them driving staff to and from work because of the icy roads!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Sim C, General Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded March 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2015</t>
+  </si>
+  <si>
+    <t>We stayed for longer than we anticipated due to the ice storms a few weeks ago. Hotel is walking distance to shops and eateries which proved to be very important since we were unable to drive! Staff and managers were very accommodating with the weather conditions, I saw them driving staff to and from work because of the icy roads!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r240393617-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>240393617</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>LaQuinta Review</t>
+  </si>
+  <si>
+    <t>Excellent, clean hotel.  Breakfast was very good andoffered a variety of items.  Clean rooms and staff was very helful and accomodating.  I would highly recommend this hotel to anyone visiting the Dallas-Fort Worth area for sports events or Six Flags.  Good location.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Sim C, Manager at La Quinta Inn &amp; Suites Mansfield, responded to this reviewResponded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Excellent, clean hotel.  Breakfast was very good andoffered a variety of items.  Clean rooms and staff was very helful and accomodating.  I would highly recommend this hotel to anyone visiting the Dallas-Fort Worth area for sports events or Six Flags.  Good location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r238798594-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>238798594</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>I stayed one night here with my kids as we were passing through town. The beds were VERY comfortable, we enjoyed a good nights sleep after traveling. Our room did have a bit of an odor to it, but nothing that we couldn't live with for the night. The kids utilized the pool, which to me was unremarkable besides some dead roaches under the table, but at least they were dead I guess. The front desk staff were very helpful and wonderful. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed one night here with my kids as we were passing through town. The beds were VERY comfortable, we enjoyed a good nights sleep after traveling. Our room did have a bit of an odor to it, but nothing that we couldn't live with for the night. The kids utilized the pool, which to me was unremarkable besides some dead roaches under the table, but at least they were dead I guess. The front desk staff were very helpful and wonderful. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r229765046-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>229765046</t>
+  </si>
+  <si>
+    <t>09/19/2014</t>
+  </si>
+  <si>
+    <t>Family in the area</t>
+  </si>
+  <si>
+    <t>We have family in the area and stayed here with our 3 dogs overnight 9-13-14. Hotel was clean and staff personable. Breakfast was sufficient for our needs the next morning. The only reason I only gave an average rating was having pet rooms on the 2nd floor instead of the 1st floor and the caulking around the tub had a couple of mildew spots and there were also several areas of paint peeling around the door facings in the hall on the 2nd floor. Overall a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We have family in the area and stayed here with our 3 dogs overnight 9-13-14. Hotel was clean and staff personable. Breakfast was sufficient for our needs the next morning. The only reason I only gave an average rating was having pet rooms on the 2nd floor instead of the 1st floor and the caulking around the tub had a couple of mildew spots and there were also several areas of paint peeling around the door facings in the hall on the 2nd floor. Overall a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r221110186-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>221110186</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Overnight</t>
+  </si>
+  <si>
+    <t>The overall service and appearance of the hotel was good. However, when we arrived to check in the elevator had broken down with a person in it. We were placed on the third floor and told that the elevator would be repaired that evening, but it was not so we ended up walking 3 flights of stairs the entire stay. The breakfast was good but the coffee had run out when we arrived around 8 AM breakfast was supposed to be served till 9:30 and the attendant didn't seem to be working until another gentleman showed up and actually took over. The location the room and the stay was good was just disappointed about the elevator issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>The overall service and appearance of the hotel was good. However, when we arrived to check in the elevator had broken down with a person in it. We were placed on the third floor and told that the elevator would be repaired that evening, but it was not so we ended up walking 3 flights of stairs the entire stay. The breakfast was good but the coffee had run out when we arrived around 8 AM breakfast was supposed to be served till 9:30 and the attendant didn't seem to be working until another gentleman showed up and actually took over. The location the room and the stay was good was just disappointed about the elevator issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r211174686-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>211174686</t>
+  </si>
+  <si>
+    <t>06/16/2014</t>
+  </si>
+  <si>
+    <t>Best in Mansfield</t>
+  </si>
+  <si>
+    <t>Actually, they were voted the best hotel in Mansfield in a recent poll.  The location is great, with nearby parks and restaurants, some within walking distance.  The area is safe for exercise, and the complimentary pass to Lifetime Fitness is a bonus.  The staff is knowledgeable and friendly, and the property is new and well maintained.  The price is certainly a great value.MoreShow less</t>
+  </si>
+  <si>
+    <t>Actually, they were voted the best hotel in Mansfield in a recent poll.  The location is great, with nearby parks and restaurants, some within walking distance.  The area is safe for exercise, and the complimentary pass to Lifetime Fitness is a bonus.  The staff is knowledgeable and friendly, and the property is new and well maintained.  The price is certainly a great value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r210112773-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>210112773</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>LaQuinta - Mansfield, Texas</t>
+  </si>
+  <si>
+    <t>As a frequent patron of this hotel I have never had a problem with any of the rooms. They are always clean and ready when I arrive. This hotel is always upgrading their amenities to serve their customers and the staff is surpurb!MoreShow less</t>
+  </si>
+  <si>
+    <t>As a frequent patron of this hotel I have never had a problem with any of the rooms. They are always clean and ready when I arrive. This hotel is always upgrading their amenities to serve their customers and the staff is surpurb!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r209838831-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>209838831</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t>We had to go to Mansfield for a graduation and unfortunately this was our most convenient option for a hotel. The rooms stunk of old cigarette smoke and the bathrooms are moldy and outdated. We stayed two days and even after they "cleaned" the rooms, we came back to the dirty dishes we left from breakfast and none of the toiletries in the bathroom had been replenished.   When we had a problem with the waffle maker at breakfast, the only staff member to help didn't speak or understand a word of English.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r207777295-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>207777295</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Rating room</t>
+  </si>
+  <si>
+    <t>The room was nice and very good size. We couldn't get the room cool enough. Electricity went off about 9:30 PM and was off around three hours. Had trouble going to sleep because of talking noise and room got warm when elec went off.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r205371566-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>205371566</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Nice, clean property</t>
+  </si>
+  <si>
+    <t>Stayed here recently on a trip with my two sisters.  We stayed a total of 4 nights, two nights on the weekend, then returned for 2 nights at end of week.  Property was clean and well maintained.  Front desk personnel were all very friendly and were especially helpful when the airline lost our luggage.  Since we were not going to be at the Inn when they finally found our luggage, La Quinta very graciously offered to hold our luggage until we came back.  Breakfast we good, area had adequate seating and the selection was typical.  Room was clean and very quite.  We enjoyed  our stay here.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r203679959-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>203679959</t>
+  </si>
+  <si>
+    <t>04/26/2014</t>
+  </si>
+  <si>
+    <t>Great place for doggies</t>
+  </si>
+  <si>
+    <t>I always travel with my dogs.  Not all hotels welcome dogs with open arms, but this one does.  Very accommodating, comfortable, and reasonable. I use this hotel when I visit my mom, who lives at a nearby nursing home.  Highly recommend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r203679887-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>203679887</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Very Friendly</t>
+  </si>
+  <si>
+    <t>One of the friendliest motels I have stayed in.  Check in and check out was quick.  We were greeted every time we entered the lobby with a smile.  Very clean and up to date.  In a very nice area of town.  One of my biggest concerns when selecting a motel is security.   There was no problem at this location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r200972637-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>200972637</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>It was ok...</t>
+  </si>
+  <si>
+    <t>Let me start with the positive things.  This hotel is in a great location, within walking distance of some great restaurants, pets stay free and has an indoor pool.  The negatives.. I killed a roach and spider upon entering my room and staff lacks great customer service, just mediocre at best.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r200712570-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>200712570</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>My daughter and I (along with our cat) stayed here two nights, March 21-23.  Our check in process was smooth, The young man at the front desk was warm and friendly.  I could tell he took pride in his job.  Our room was clean and had no odd smells.  The hotel was immaculately clean.  The marble tile floors were literally sparkling.  Every staff member I encountered offered a friendly greeting.  The only reason I'm giving a 4 star Very Good rating is that the indoor pool was very cold, the kids were freezing.  Otherwise, I was pleased with our stay and if I ever find myself in the area we would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My daughter and I (along with our cat) stayed here two nights, March 21-23.  Our check in process was smooth, The young man at the front desk was warm and friendly.  I could tell he took pride in his job.  Our room was clean and had no odd smells.  The hotel was immaculately clean.  The marble tile floors were literally sparkling.  Every staff member I encountered offered a friendly greeting.  The only reason I'm giving a 4 star Very Good rating is that the indoor pool was very cold, the kids were freezing.  Otherwise, I was pleased with our stay and if I ever find myself in the area we would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r200161829-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>200161829</t>
+  </si>
+  <si>
+    <t>04/06/2014</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>Nice place, but poor customer service. Some of the staff were not helpful at all. We got charged when we got there for a whole day even though we checked in at 5am and check out was at 12pm. After 12 pm, they interrupted us with a phone call asking for us to come down for our payment for another day. We checked out that night. The first payment was charged on my boyfriend's card. Then the second payment was done on mine. After we had left my boyfriend's card was charged again for the same amount charged on my card. They charged us 3 times for a one night stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice place, but poor customer service. Some of the staff were not helpful at all. We got charged when we got there for a whole day even though we checked in at 5am and check out was at 12pm. After 12 pm, they interrupted us with a phone call asking for us to come down for our payment for another day. We checked out that night. The first payment was charged on my boyfriend's card. Then the second payment was done on mine. After we had left my boyfriend's card was charged again for the same amount charged on my card. They charged us 3 times for a one night stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r199863681-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>199863681</t>
+  </si>
+  <si>
+    <t>04/01/2014</t>
+  </si>
+  <si>
+    <t>Team stays</t>
+  </si>
+  <si>
+    <t>Our soccer team stays at this hotel for our games in Arlington.  The staff are very friendly and it is nice to have 24 hour access to all amenities, including pool and work out room.  The breakfast is good, breakfast area, rooms and pool/work out areas are always clean and maintained.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r198994803-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>198994803</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Start of family vacation</t>
+  </si>
+  <si>
+    <t>This hotel had a nice workout area, and pool with a hot tub that were open 24 hours a day.  The breakfast was very good for the whole family, offering waffles, eggs, sausage, cereal, tea, coffee, hot chocolate and juices. Everyone was happy!  The rooms were sufficient for what we needed for a one night stay while visiting friends.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r193621124-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>193621124</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>La Quinta Inn &amp; Suites Mansfield, Texas</t>
+  </si>
+  <si>
+    <t>You do have a choice of local hotels in the nearby vicinity but from my own experience none will be as quiet as this location! Here you will find very clean rooms and a staff dedicated to your satisfaction and comfort.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r188697759-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>188697759</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Love the location</t>
+  </si>
+  <si>
+    <t>We were in town to visit family who lives there and they recommended us to this hotel. It is a gorgeous hotel and Manny at the front desk was very helpful. We did not want to drive and he was helpful in finding restaurants that were walking distance. The hotel has 5 or 6 restaurants you can walk to. One of my favorite hotels</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r188633197-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>188633197</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Nice enough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visited the area for a Christmas party. My only complaint was the heat. If I set it any higher than 65 it was suffocatingly hot and never clicked off but at 64 it was ice cold in the room. Found myself getting up and down all night to adjust the temperature.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r188323108-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>188323108</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>Much-Needed Rest and Relaxation</t>
+  </si>
+  <si>
+    <t>On a recent business trip I found myself looking for a comfortable resting place before my morning business...  I had passed up multiple options in Fort Worth hoping for something closer to my destination...  It was late and it was raining so I didn't want to travel much farther... As luck would have it, I stumbled upon the La Quinta and stopped to see if they had a vacancy...  Again, lucky me, they had a double Queen room on the second floor and offered me a discounted rate of $80 which was lower than I expected...  When I got to my room, I was even more impressed...  Roomy, clean, comfortable...  Free Wi-Fi, hot breakfast in AM and large, HD TV with HBO...  This was one of the best values I have experienced around the country...  Easy access from Hwy 287 and close to Dallas and Ft. Worth...  I'm sure I saved a boatload of money and had a great stay...  Oh, and there's a spacious pool and health facilities...  Thanks...  TichiganbluesMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>On a recent business trip I found myself looking for a comfortable resting place before my morning business...  I had passed up multiple options in Fort Worth hoping for something closer to my destination...  It was late and it was raining so I didn't want to travel much farther... As luck would have it, I stumbled upon the La Quinta and stopped to see if they had a vacancy...  Again, lucky me, they had a double Queen room on the second floor and offered me a discounted rate of $80 which was lower than I expected...  When I got to my room, I was even more impressed...  Roomy, clean, comfortable...  Free Wi-Fi, hot breakfast in AM and large, HD TV with HBO...  This was one of the best values I have experienced around the country...  Easy access from Hwy 287 and close to Dallas and Ft. Worth...  I'm sure I saved a boatload of money and had a great stay...  Oh, and there's a spacious pool and health facilities...  Thanks...  TichiganbluesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r157234968-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>157234968</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Better than expected!!</t>
+  </si>
+  <si>
+    <t>Hotel looks new.  Front desk was very pleasant and efficient. Rooms very clean and bed and pillows were super nice.  Breakfast was ok and the eggs were better than usual. Has an indoor pool that looked inviting. Lots of good eating places that you can walk to.  I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r157190972-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>157190972</t>
+  </si>
+  <si>
+    <t>It's a Wise Choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My medical seminar was in Arlington near 6 Flags and thankfully, the LaQuinta in the immediate area was booked. The Mansfield LQ Inn proved to be an inspired choice. It's proximity to restaurants and shopping is excellent. the 12 mile drive to my seminar was facilitated by using Cooper to travel from the Inn to Randol Mill Road in approximately 16 minutes. A very clean and undisturbed stay!Jim Morris </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r157115630-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>157115630</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Always enjoy La Quints suites</t>
+  </si>
+  <si>
+    <t>As always room was clean and a real plus was Jacuzzi in the room.I've yet to be disappointed with my stay. The breakfast does need to improve but I'm not big on breakfast so it was OK with me. Otherwise I would recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r156909034-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>156909034</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>great place to stay in Mansfield, TX better than full service hotel at a reasonable price</t>
+  </si>
+  <si>
+    <t>I was visiting on business and have stayed here a couple of times for about a week at a time. The staff are friendly and helpful.  Its quiet and clean and no drama - no excuses.  They go out of their way to make you happy.  I arrived after being up almost 24 hours due to airline delays and got there about 5-6 AM and it was of course before check-in - check out time.  The nice young lady at the front desk could have read me the chapter and verse out of the rule book that many hotels use to hide behind not helping instead she had a room where the lock was broken and only the main key worked - it was scheduled to be fixed that day.  She let me in and I got about 6 hours sleep - when I got up the next person on shift had a key ready and delivered it to me.  Full service hotels dont do this for 250 dollars a night - this simply blew me away.  Now - about the place overall - not only are the staff first rate it has everything you need and nothing you dont need. Free wifi, free breakfast, indoor hot tub and pool, my king room is large and has recliner, sopha and king bed, fridge, microwave, free parking (I know its expected but you cant count on it) close to shopping, places...I was visiting on business and have stayed here a couple of times for about a week at a time. The staff are friendly and helpful.  Its quiet and clean and no drama - no excuses.  They go out of their way to make you happy.  I arrived after being up almost 24 hours due to airline delays and got there about 5-6 AM and it was of course before check-in - check out time.  The nice young lady at the front desk could have read me the chapter and verse out of the rule book that many hotels use to hide behind not helping instead she had a room where the lock was broken and only the main key worked - it was scheduled to be fixed that day.  She let me in and I got about 6 hours sleep - when I got up the next person on shift had a key ready and delivered it to me.  Full service hotels dont do this for 250 dollars a night - this simply blew me away.  Now - about the place overall - not only are the staff first rate it has everything you need and nothing you dont need. Free wifi, free breakfast, indoor hot tub and pool, my king room is large and has recliner, sopha and king bed, fridge, microwave, free parking (I know its expected but you cant count on it) close to shopping, places to eat... Better than full service hotel and much less money.  You cant go wrong here no complaints at all - its my go to place when I am here and I recommend to everyone coming to the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was visiting on business and have stayed here a couple of times for about a week at a time. The staff are friendly and helpful.  Its quiet and clean and no drama - no excuses.  They go out of their way to make you happy.  I arrived after being up almost 24 hours due to airline delays and got there about 5-6 AM and it was of course before check-in - check out time.  The nice young lady at the front desk could have read me the chapter and verse out of the rule book that many hotels use to hide behind not helping instead she had a room where the lock was broken and only the main key worked - it was scheduled to be fixed that day.  She let me in and I got about 6 hours sleep - when I got up the next person on shift had a key ready and delivered it to me.  Full service hotels dont do this for 250 dollars a night - this simply blew me away.  Now - about the place overall - not only are the staff first rate it has everything you need and nothing you dont need. Free wifi, free breakfast, indoor hot tub and pool, my king room is large and has recliner, sopha and king bed, fridge, microwave, free parking (I know its expected but you cant count on it) close to shopping, places...I was visiting on business and have stayed here a couple of times for about a week at a time. The staff are friendly and helpful.  Its quiet and clean and no drama - no excuses.  They go out of their way to make you happy.  I arrived after being up almost 24 hours due to airline delays and got there about 5-6 AM and it was of course before check-in - check out time.  The nice young lady at the front desk could have read me the chapter and verse out of the rule book that many hotels use to hide behind not helping instead she had a room where the lock was broken and only the main key worked - it was scheduled to be fixed that day.  She let me in and I got about 6 hours sleep - when I got up the next person on shift had a key ready and delivered it to me.  Full service hotels dont do this for 250 dollars a night - this simply blew me away.  Now - about the place overall - not only are the staff first rate it has everything you need and nothing you dont need. Free wifi, free breakfast, indoor hot tub and pool, my king room is large and has recliner, sopha and king bed, fridge, microwave, free parking (I know its expected but you cant count on it) close to shopping, places to eat... Better than full service hotel and much less money.  You cant go wrong here no complaints at all - its my go to place when I am here and I recommend to everyone coming to the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r155905121-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>155905121</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The management at the Hotel were beyond expectations. They made my stay smooth and easy. Great Hotel. I highly recommended. I was in Mansfield for business last March and needed to go to an important appointment. The taxi never showed up to pick me up. Tara, the manager figured out something to got me to my appointment on time and back to the Hotel. She and her staff  were very helpful.I am so grateful for their support.Nell G, Monterrey N.L. Mexico </t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r150698745-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>150698745</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>My home away from home!</t>
+  </si>
+  <si>
+    <t>I have stayed with this La Quinta for years now for business trips and I have enjoyed each and every part of it! The staff is so lively and always willing to accommodate your every needs. Not to mention the manager's special they had going on the nights I was there! Who wouldn't enjoy a evening like that? The long days of work were certainly made easy with the staff's effort and hotel accommodations! Keep up the good work!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r149076520-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>149076520</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>Musty smell</t>
+  </si>
+  <si>
+    <t>Got a standard room with 2 queen beds. Encountered musty odor immediately upon entering. Traced it to the maroon comforters on the bed - looks like it had never been washed. Blanket was thin, pillows hard, tv reception was horrible. Checked out after 1 night, came back later that evening to get another night and the front desk refused to give me the same rate ($79), asked for $89. I said no thanks, went down the street to Hampton Inn and got same room for $85. Turns out no musty odor, nice soft pillows, clean-feeling comforters, tv reception much better, decor nicer, entire hotel feels fresher and brighter. Pick Hampton Inn instead!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Got a standard room with 2 queen beds. Encountered musty odor immediately upon entering. Traced it to the maroon comforters on the bed - looks like it had never been washed. Blanket was thin, pillows hard, tv reception was horrible. Checked out after 1 night, came back later that evening to get another night and the front desk refused to give me the same rate ($79), asked for $89. I said no thanks, went down the street to Hampton Inn and got same room for $85. Turns out no musty odor, nice soft pillows, clean-feeling comforters, tv reception much better, decor nicer, entire hotel feels fresher and brighter. Pick Hampton Inn instead!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r148507419-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>148507419</t>
+  </si>
+  <si>
+    <t>01/01/2013</t>
+  </si>
+  <si>
+    <t>Nice for the Price</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay and the big, in-room jacuzzi tub.  Room was clean and nice, larger than average in-room fridge, which is handy.Breakfast was "ok", I recommend sticking to the do-it-yourself waffle, fruit, bagels, etc., and passing on the dry, overcooked eggs and greasy, tainted-tasting sausage.When checking in we were given wristbands and told they could get you some sort of discount at local businesses or restaurants, but the front desk help had no idea what or where, and made no effort to find out.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r148228018-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>148228018</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Could have been great!</t>
+  </si>
+  <si>
+    <t>We selected the higher rated room with great expectations which were not altogether met.  The TV was seriously outdated and the remote control was not adequate.  We were unable to select Closed Captions.  The TV was a large dinosaur with poor sound control and a very dark picture.  The advertised hot breakfast was very lacking in quality and variety.  There were several occasions when there was no one attending the front desk.  On the other hand, the staff that was encountered was friendly and the hotel was spotless.  Given the choice, I would hesitate to select La Quinta again.  I have been spoiled by Drury.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r147720036-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>147720036</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r135964221-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>135964221</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Comfortable Beds</t>
+  </si>
+  <si>
+    <t>The beds were very comfortable and the A/C worked great, but we were in town for a softball tournament and came to relax in between games and our TV didn't work properly.  Only half of the screen worked and the remote didn't work at all, we expressed our concerns to the front desk but noone ever came to fix it.  Overall our stay was fine, but I would consider staying somewhere else the next time we go to Mansfield.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r134124981-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>134124981</t>
+  </si>
+  <si>
+    <t>07/11/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r132373901-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>132373901</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Excellent Management &amp; Service</t>
+  </si>
+  <si>
+    <t>Over the years I have stayed at many hotels for business and for pleasure. For me the mark of any Good hotel is the management team, without good management my stay would be ruined.However at this particular hotel I found the management team was excellent. They made it worth my stop in staying 4 weeks at this hotel. Yes I had a couple of complaints but they immediately addressed them and resolved the problem.The reason I gave only a rating of 4 for the room was several times I had to take a chilly shower because of the demand for hot water was so great (need larger / added water heaters). This was a contruction goof that now need to be remedy by La Quinta.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Over the years I have stayed at many hotels for business and for pleasure. For me the mark of any Good hotel is the management team, without good management my stay would be ruined.However at this particular hotel I found the management team was excellent. They made it worth my stop in staying 4 weeks at this hotel. Yes I had a couple of complaints but they immediately addressed them and resolved the problem.The reason I gave only a rating of 4 for the room was several times I had to take a chilly shower because of the demand for hot water was so great (need larger / added water heaters). This was a contruction goof that now need to be remedy by La Quinta.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r131541955-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>131541955</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Perfect stay in Mansfield</t>
+  </si>
+  <si>
+    <t>We arrived at the LQ Mansfield as a first time LQ guest. Once we made it to the check in desk (there was a couple ahead of us), we found the front desk agent very friendly, speedy and very professional. We would have like to have been told how to get to the hotel elevator, but we found it - no big deal. We had a huge room (416) with king bed, and a sitting area that had a loveseat, table, writing desk, and recliner. The recliner was very comfortable. The room accommodations were VERY nice. Lots of pillows on the bed, refrigerator, microwave and a TV that some of the channels were not working, but we were here for a high school graduation, so we didn't watch too much TV.  The bath was large with tub/shower combo and it was well stocked with towels etc. There was a hair dryer and mini coffee maker in the bathroom. We would have liked to see more variety in the bathroom amenities - it had 1 wipe for makeup removal, a small bottle of moisturizer in a basket display on the bathroom counter lined with a washrag - very nice touch for this quality of hotel, but our disappointment was the "combo" shampoo/conditioner. It was OK, but would have liked to see 2 separate bottles. the hotel floors were spotless. The walk from the lobby area to the elevators and beyond to...We arrived at the LQ Mansfield as a first time LQ guest. Once we made it to the check in desk (there was a couple ahead of us), we found the front desk agent very friendly, speedy and very professional. We would have like to have been told how to get to the hotel elevator, but we found it - no big deal. We had a huge room (416) with king bed, and a sitting area that had a loveseat, table, writing desk, and recliner. The recliner was very comfortable. The room accommodations were VERY nice. Lots of pillows on the bed, refrigerator, microwave and a TV that some of the channels were not working, but we were here for a high school graduation, so we didn't watch too much TV.  The bath was large with tub/shower combo and it was well stocked with towels etc. There was a hair dryer and mini coffee maker in the bathroom. We would have liked to see more variety in the bathroom amenities - it had 1 wipe for makeup removal, a small bottle of moisturizer in a basket display on the bathroom counter lined with a washrag - very nice touch for this quality of hotel, but our disappointment was the "combo" shampoo/conditioner. It was OK, but would have liked to see 2 separate bottles. the hotel floors were spotless. The walk from the lobby area to the elevators and beyond to the upper floors were shiny shiny shiny and the carpets on the floors (where guest rooms are) was immaculate. There was PLENTY of hot water for showers and overall we got a great night's sleep. We chose this hotel because on the LQ website - it states that ALL hotels offer the Simmons Beautyrest mattresses (we have this bed at home) and we absolutely love it. We sleep like we are on a cloud; but here we found the mattress to be thin with the "foam crate" stuff between the mattress and top sheet. Once we got settled in to bed, we found it satisfactory and settled in for a great nights sleep. The following morning, we were PLEASANTLY surprised by the excellent buffet breakfast "spread".  Of all the mid-priced hotels (and I am a travel agent) we found LQ's breakfast to be the BEST of any compared to say Hampton, HI Express etc. HUGE variety, hot food that was supposed to be hot / cold food that was supposed to be cold. Starting from the scrambled eggs, sausage, waffle maker, huge fresh fruit spread, all kinds of pasteries, 4 or 5 types of fruit juices, several full coffee pots, a refrig that had pudding, yogurts, hard boiled eggs and other things. we waked up on the bright side! Overall a GREAT stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at the LQ Mansfield as a first time LQ guest. Once we made it to the check in desk (there was a couple ahead of us), we found the front desk agent very friendly, speedy and very professional. We would have like to have been told how to get to the hotel elevator, but we found it - no big deal. We had a huge room (416) with king bed, and a sitting area that had a loveseat, table, writing desk, and recliner. The recliner was very comfortable. The room accommodations were VERY nice. Lots of pillows on the bed, refrigerator, microwave and a TV that some of the channels were not working, but we were here for a high school graduation, so we didn't watch too much TV.  The bath was large with tub/shower combo and it was well stocked with towels etc. There was a hair dryer and mini coffee maker in the bathroom. We would have liked to see more variety in the bathroom amenities - it had 1 wipe for makeup removal, a small bottle of moisturizer in a basket display on the bathroom counter lined with a washrag - very nice touch for this quality of hotel, but our disappointment was the "combo" shampoo/conditioner. It was OK, but would have liked to see 2 separate bottles. the hotel floors were spotless. The walk from the lobby area to the elevators and beyond to...We arrived at the LQ Mansfield as a first time LQ guest. Once we made it to the check in desk (there was a couple ahead of us), we found the front desk agent very friendly, speedy and very professional. We would have like to have been told how to get to the hotel elevator, but we found it - no big deal. We had a huge room (416) with king bed, and a sitting area that had a loveseat, table, writing desk, and recliner. The recliner was very comfortable. The room accommodations were VERY nice. Lots of pillows on the bed, refrigerator, microwave and a TV that some of the channels were not working, but we were here for a high school graduation, so we didn't watch too much TV.  The bath was large with tub/shower combo and it was well stocked with towels etc. There was a hair dryer and mini coffee maker in the bathroom. We would have liked to see more variety in the bathroom amenities - it had 1 wipe for makeup removal, a small bottle of moisturizer in a basket display on the bathroom counter lined with a washrag - very nice touch for this quality of hotel, but our disappointment was the "combo" shampoo/conditioner. It was OK, but would have liked to see 2 separate bottles. the hotel floors were spotless. The walk from the lobby area to the elevators and beyond to the upper floors were shiny shiny shiny and the carpets on the floors (where guest rooms are) was immaculate. There was PLENTY of hot water for showers and overall we got a great night's sleep. We chose this hotel because on the LQ website - it states that ALL hotels offer the Simmons Beautyrest mattresses (we have this bed at home) and we absolutely love it. We sleep like we are on a cloud; but here we found the mattress to be thin with the "foam crate" stuff between the mattress and top sheet. Once we got settled in to bed, we found it satisfactory and settled in for a great nights sleep. The following morning, we were PLEASANTLY surprised by the excellent buffet breakfast "spread".  Of all the mid-priced hotels (and I am a travel agent) we found LQ's breakfast to be the BEST of any compared to say Hampton, HI Express etc. HUGE variety, hot food that was supposed to be hot / cold food that was supposed to be cold. Starting from the scrambled eggs, sausage, waffle maker, huge fresh fruit spread, all kinds of pasteries, 4 or 5 types of fruit juices, several full coffee pots, a refrig that had pudding, yogurts, hard boiled eggs and other things. we waked up on the bright side! Overall a GREAT stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r131481956-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>131481956</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Make sure you have your free night in writing because the manager "Sim" will not return your calls regarding this.  I am still waiting on his call.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r119607316-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>119607316</t>
+  </si>
+  <si>
+    <t>10/22/2011</t>
+  </si>
+  <si>
+    <t>It's OK, not up to expectaions</t>
+  </si>
+  <si>
+    <t>I've stayed in Mansfield several times before while visiting family and have had varying experiences, from downright awful (Comfort Inn) to almost outstanding (Holiday Inn Express).  This time I was staying longer than usual, and needed to stay on a tighter budget than the HIE would allow.  I decided to split my time between the Hampton Inn &amp; Suites (3 nights) and the La Quinta Inn &amp; Suites (5 nights), based on discount codes that made the rates almost equal, and I wanted to see what they were like.  
+The La Quinta was a step down from the Hampton, which was a step down from the HIE.  There's really nothing "wrong" with the La Quinta, just lower quality, from the beds to the TV to the bathroom to the breakfast to the staff. 
+Cons: The hallway smelled of smoke the whole time I was there, even though it was a "No Smoking" hotel.  The room didn't smell of smoke, but felt small.  There weren't any feather pillows (the bed itself was OK but not great), the TV was a flat-screen but still a big set and not HD.  
+The bathroom felt cramped and the tub was only about 12" deep - it had NO soap dish or any other shelf to put your toiletries, so I was having to repeatedly reach wayyyy down to pick up/put down my shower gel, shampoo, conditioner, face wash, etc.  What a pain!  They supplied...I've stayed in Mansfield several times before while visiting family and have had varying experiences, from downright awful (Comfort Inn) to almost outstanding (Holiday Inn Express).  This time I was staying longer than usual, and needed to stay on a tighter budget than the HIE would allow.  I decided to split my time between the Hampton Inn &amp; Suites (3 nights) and the La Quinta Inn &amp; Suites (5 nights), based on discount codes that made the rates almost equal, and I wanted to see what they were like.  The La Quinta was a step down from the Hampton, which was a step down from the HIE.  There's really nothing "wrong" with the La Quinta, just lower quality, from the beds to the TV to the bathroom to the breakfast to the staff. Cons: The hallway smelled of smoke the whole time I was there, even though it was a "No Smoking" hotel.  The room didn't smell of smoke, but felt small.  There weren't any feather pillows (the bed itself was OK but not great), the TV was a flat-screen but still a big set and not HD.  The bathroom felt cramped and the tub was only about 12" deep - it had NO soap dish or any other shelf to put your toiletries, so I was having to repeatedly reach wayyyy down to pick up/put down my shower gel, shampoo, conditioner, face wash, etc.  What a pain!  They supplied small bar soaps, shampoo and lotion - no shower gel, no conditioner - glad I had picked some up at the Hampton!  The "manager's reception" every weekday evening consisted of a bag of tortilla chips and a jar of salsa (that was it, every night for 5 nights), plus a few labels of canned beer and 3 or 4 bottles of cheap wine (the red was refrigerated  - boo).  The breakfast was just mediocre - the eggs weren't "real", and the other choices were quite limited.  The coffee was pretty bad, too.  The indoor pool looked weird (cloudy and greenish) and the spa wasn't even bathtub temperature.  The front desk staff seemed quite indifferent (even annoyed if you asked for something) except for one Hispanic (I think?) young man who was friendly and responsive.Pros - My room was clean and was very quiet and dark at night.  I asked for one on the top floor that faces south (toward the residential area) and was near the front of the hotel, as suggested by a previous reviewer, which was great advice.  This was my first and last stay at the La Quintat.  There are better options for about the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I've stayed in Mansfield several times before while visiting family and have had varying experiences, from downright awful (Comfort Inn) to almost outstanding (Holiday Inn Express).  This time I was staying longer than usual, and needed to stay on a tighter budget than the HIE would allow.  I decided to split my time between the Hampton Inn &amp; Suites (3 nights) and the La Quinta Inn &amp; Suites (5 nights), based on discount codes that made the rates almost equal, and I wanted to see what they were like.  
+The La Quinta was a step down from the Hampton, which was a step down from the HIE.  There's really nothing "wrong" with the La Quinta, just lower quality, from the beds to the TV to the bathroom to the breakfast to the staff. 
+Cons: The hallway smelled of smoke the whole time I was there, even though it was a "No Smoking" hotel.  The room didn't smell of smoke, but felt small.  There weren't any feather pillows (the bed itself was OK but not great), the TV was a flat-screen but still a big set and not HD.  
+The bathroom felt cramped and the tub was only about 12" deep - it had NO soap dish or any other shelf to put your toiletries, so I was having to repeatedly reach wayyyy down to pick up/put down my shower gel, shampoo, conditioner, face wash, etc.  What a pain!  They supplied...I've stayed in Mansfield several times before while visiting family and have had varying experiences, from downright awful (Comfort Inn) to almost outstanding (Holiday Inn Express).  This time I was staying longer than usual, and needed to stay on a tighter budget than the HIE would allow.  I decided to split my time between the Hampton Inn &amp; Suites (3 nights) and the La Quinta Inn &amp; Suites (5 nights), based on discount codes that made the rates almost equal, and I wanted to see what they were like.  The La Quinta was a step down from the Hampton, which was a step down from the HIE.  There's really nothing "wrong" with the La Quinta, just lower quality, from the beds to the TV to the bathroom to the breakfast to the staff. Cons: The hallway smelled of smoke the whole time I was there, even though it was a "No Smoking" hotel.  The room didn't smell of smoke, but felt small.  There weren't any feather pillows (the bed itself was OK but not great), the TV was a flat-screen but still a big set and not HD.  The bathroom felt cramped and the tub was only about 12" deep - it had NO soap dish or any other shelf to put your toiletries, so I was having to repeatedly reach wayyyy down to pick up/put down my shower gel, shampoo, conditioner, face wash, etc.  What a pain!  They supplied small bar soaps, shampoo and lotion - no shower gel, no conditioner - glad I had picked some up at the Hampton!  The "manager's reception" every weekday evening consisted of a bag of tortilla chips and a jar of salsa (that was it, every night for 5 nights), plus a few labels of canned beer and 3 or 4 bottles of cheap wine (the red was refrigerated  - boo).  The breakfast was just mediocre - the eggs weren't "real", and the other choices were quite limited.  The coffee was pretty bad, too.  The indoor pool looked weird (cloudy and greenish) and the spa wasn't even bathtub temperature.  The front desk staff seemed quite indifferent (even annoyed if you asked for something) except for one Hispanic (I think?) young man who was friendly and responsive.Pros - My room was clean and was very quiet and dark at night.  I asked for one on the top floor that faces south (toward the residential area) and was near the front of the hotel, as suggested by a previous reviewer, which was great advice.  This was my first and last stay at the La Quintat.  There are better options for about the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r106018555-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>106018555</t>
+  </si>
+  <si>
+    <t>04/28/2011</t>
+  </si>
+  <si>
+    <t>The most accomodating hotel I have stayed at!</t>
+  </si>
+  <si>
+    <t>I travel with my baseball team often. During this trip I arrived at the hotel to checkin and realized I booked for the wrong weekend. The hotel looked pretty booked up and we had a special rate for our team. The front desk girl spoke to her manager and was able to accomodate me at the same rate, which was great since I really could not pay the going rate that day. I wish all the places I stay at were this accomodating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r89796640-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>89796640</t>
+  </si>
+  <si>
+    <t>12/13/2010</t>
+  </si>
+  <si>
+    <t>Served the purpose, wonderful staff</t>
+  </si>
+  <si>
+    <t>Stayed for a meeting in south arlington. Served the purpose well and was very conveniently located. The desk person at check in was genuinely happy when she greeted us upon arrival, which is nice to see after a long day.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r77017544-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>77017544</t>
+  </si>
+  <si>
+    <t>08/26/2010</t>
+  </si>
+  <si>
+    <t>We stayed for a wedding party in July and...</t>
+  </si>
+  <si>
+    <t>We stayed for a wedding party in July and the staff was wonderful. The hotel looks new. I liked the colors.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r55740989-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
+  </si>
+  <si>
+    <t>55740989</t>
+  </si>
+  <si>
+    <t>02/11/2010</t>
+  </si>
+  <si>
+    <t>More than I expected</t>
+  </si>
+  <si>
+    <t>I recently stayed at LaQuinta while visiting a dear friend in Mansfield. Being from the Northeast, we do not have this chain of hotels, so I wasn't sure what to expect. The hotel was very clean, rooms very spacious, and the staff is very friendly. They also have a Continental breakfast that offers a very wide variety of items. The hotel has an indoor pool, a hot tub, exercise room, and vending machines. Located right in front of the hotel is a strip of shops that include a nail parlor, pizza place, donut shop, and a liquor store, what more could you ask for?!!!</t>
+  </si>
+  <si>
+    <t>February 2010</t>
   </si>
 </sst>
 </file>
@@ -645,6 +2629,6710 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>87</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X10" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>133</v>
+      </c>
+      <c r="X12" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>112</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>145</v>
+      </c>
+      <c r="L14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+      <c r="O14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>133</v>
+      </c>
+      <c r="X14" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" t="s">
+        <v>78</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>133</v>
+      </c>
+      <c r="X15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K16" t="s">
+        <v>156</v>
+      </c>
+      <c r="L16" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>111</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>133</v>
+      </c>
+      <c r="X16" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>160</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>133</v>
+      </c>
+      <c r="X17" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" t="s">
+        <v>168</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>177</v>
+      </c>
+      <c r="X19" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>177</v>
+      </c>
+      <c r="X20" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>177</v>
+      </c>
+      <c r="X21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J22" t="s">
+        <v>194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22" t="s">
+        <v>196</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s">
+        <v>132</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>204</v>
+      </c>
+      <c r="O23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>198</v>
+      </c>
+      <c r="X23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" t="s">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s">
+        <v>208</v>
+      </c>
+      <c r="L24" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>210</v>
+      </c>
+      <c r="X24" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>219</v>
+      </c>
+      <c r="X25" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>219</v>
+      </c>
+      <c r="X26" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>218</v>
+      </c>
+      <c r="O27" t="s">
+        <v>112</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>219</v>
+      </c>
+      <c r="X27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s">
+        <v>233</v>
+      </c>
+      <c r="L28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
+      </c>
+      <c r="O28" t="s">
+        <v>112</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>236</v>
+      </c>
+      <c r="X28" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+      <c r="K29" t="s">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>246</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30" t="s">
+        <v>248</v>
+      </c>
+      <c r="L30" t="s">
+        <v>249</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>250</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>251</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>252</v>
+      </c>
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+      <c r="K31" t="s">
+        <v>254</v>
+      </c>
+      <c r="L31" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>256</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>257</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" t="s">
+        <v>259</v>
+      </c>
+      <c r="K32" t="s">
+        <v>260</v>
+      </c>
+      <c r="L32" t="s">
+        <v>261</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>262</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>263</v>
+      </c>
+      <c r="X32" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>266</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" t="s">
+        <v>269</v>
+      </c>
+      <c r="L33" t="s">
+        <v>270</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>262</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>263</v>
+      </c>
+      <c r="X33" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>262</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>263</v>
+      </c>
+      <c r="X34" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>279</v>
+      </c>
+      <c r="J35" t="s">
+        <v>280</v>
+      </c>
+      <c r="K35" t="s">
+        <v>281</v>
+      </c>
+      <c r="L35" t="s">
+        <v>282</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>283</v>
+      </c>
+      <c r="X35" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>286</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>287</v>
+      </c>
+      <c r="J36" t="s">
+        <v>288</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>283</v>
+      </c>
+      <c r="X36" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>289</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>290</v>
+      </c>
+      <c r="J37" t="s">
+        <v>291</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s">
+        <v>132</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>184</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>283</v>
+      </c>
+      <c r="X37" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>293</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>294</v>
+      </c>
+      <c r="J38" t="s">
+        <v>295</v>
+      </c>
+      <c r="K38" t="s">
+        <v>296</v>
+      </c>
+      <c r="L38" t="s">
+        <v>297</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>292</v>
+      </c>
+      <c r="O38" t="s">
+        <v>112</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>298</v>
+      </c>
+      <c r="X38" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J39" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" t="s">
+        <v>304</v>
+      </c>
+      <c r="L39" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>306</v>
+      </c>
+      <c r="O39" t="s">
+        <v>112</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>298</v>
+      </c>
+      <c r="X39" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>308</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>309</v>
+      </c>
+      <c r="J40" t="s">
+        <v>310</v>
+      </c>
+      <c r="K40" t="s">
+        <v>311</v>
+      </c>
+      <c r="L40" t="s">
+        <v>312</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>283</v>
+      </c>
+      <c r="X40" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>314</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>315</v>
+      </c>
+      <c r="J41" t="s">
+        <v>316</v>
+      </c>
+      <c r="K41" t="s">
+        <v>317</v>
+      </c>
+      <c r="L41" t="s">
+        <v>318</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>292</v>
+      </c>
+      <c r="O41" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>298</v>
+      </c>
+      <c r="X41" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>321</v>
+      </c>
+      <c r="J42" t="s">
+        <v>322</v>
+      </c>
+      <c r="K42" t="s">
+        <v>323</v>
+      </c>
+      <c r="L42" t="s">
+        <v>324</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>325</v>
+      </c>
+      <c r="O42" t="s">
+        <v>78</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>298</v>
+      </c>
+      <c r="X42" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>327</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>328</v>
+      </c>
+      <c r="J43" t="s">
+        <v>329</v>
+      </c>
+      <c r="K43" t="s">
+        <v>330</v>
+      </c>
+      <c r="L43" t="s">
+        <v>331</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>332</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>298</v>
+      </c>
+      <c r="X43" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" t="s">
+        <v>338</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>332</v>
+      </c>
+      <c r="O44" t="s">
+        <v>70</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>298</v>
+      </c>
+      <c r="X44" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>340</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>341</v>
+      </c>
+      <c r="J45" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" t="s">
+        <v>343</v>
+      </c>
+      <c r="L45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>332</v>
+      </c>
+      <c r="O45" t="s">
+        <v>78</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>298</v>
+      </c>
+      <c r="X45" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>332</v>
+      </c>
+      <c r="O46" t="s">
+        <v>78</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>298</v>
+      </c>
+      <c r="X46" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>352</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>353</v>
+      </c>
+      <c r="J47" t="s">
+        <v>354</v>
+      </c>
+      <c r="K47" t="s">
+        <v>355</v>
+      </c>
+      <c r="L47" t="s">
+        <v>356</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>357</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" t="s">
+        <v>184</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>364</v>
+      </c>
+      <c r="X48" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>368</v>
+      </c>
+      <c r="J49" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" t="s">
+        <v>370</v>
+      </c>
+      <c r="L49" t="s">
+        <v>371</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>363</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>372</v>
+      </c>
+      <c r="X49" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>376</v>
+      </c>
+      <c r="J50" t="s">
+        <v>377</v>
+      </c>
+      <c r="K50" t="s">
+        <v>378</v>
+      </c>
+      <c r="L50" t="s">
+        <v>379</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>363</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>372</v>
+      </c>
+      <c r="X50" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>381</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>382</v>
+      </c>
+      <c r="J51" t="s">
+        <v>383</v>
+      </c>
+      <c r="K51" t="s">
+        <v>384</v>
+      </c>
+      <c r="L51" t="s">
+        <v>385</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>386</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>387</v>
+      </c>
+      <c r="X51" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>390</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>391</v>
+      </c>
+      <c r="J52" t="s">
+        <v>392</v>
+      </c>
+      <c r="K52" t="s">
+        <v>393</v>
+      </c>
+      <c r="L52" t="s">
+        <v>394</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>395</v>
+      </c>
+      <c r="O52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>396</v>
+      </c>
+      <c r="X52" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>399</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>400</v>
+      </c>
+      <c r="J53" t="s">
+        <v>401</v>
+      </c>
+      <c r="K53" t="s">
+        <v>402</v>
+      </c>
+      <c r="L53" t="s">
+        <v>403</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>395</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>404</v>
+      </c>
+      <c r="X53" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>407</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>408</v>
+      </c>
+      <c r="J54" t="s">
+        <v>409</v>
+      </c>
+      <c r="K54" t="s">
+        <v>410</v>
+      </c>
+      <c r="L54" t="s">
+        <v>411</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>386</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>412</v>
+      </c>
+      <c r="X54" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>415</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>416</v>
+      </c>
+      <c r="J55" t="s">
+        <v>417</v>
+      </c>
+      <c r="K55" t="s">
+        <v>418</v>
+      </c>
+      <c r="L55" t="s">
+        <v>419</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>386</v>
+      </c>
+      <c r="O55" t="s">
+        <v>184</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>420</v>
+      </c>
+      <c r="X55" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>423</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>424</v>
+      </c>
+      <c r="J56" t="s">
+        <v>425</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s">
+        <v>132</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>426</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>427</v>
+      </c>
+      <c r="X56" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>429</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>430</v>
+      </c>
+      <c r="J57" t="s">
+        <v>431</v>
+      </c>
+      <c r="K57" t="s">
+        <v>432</v>
+      </c>
+      <c r="L57" t="s">
+        <v>433</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>434</v>
+      </c>
+      <c r="O57" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>435</v>
+      </c>
+      <c r="X57" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>438</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>439</v>
+      </c>
+      <c r="J58" t="s">
+        <v>440</v>
+      </c>
+      <c r="K58" t="s">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s">
+        <v>442</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>443</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>444</v>
+      </c>
+      <c r="X58" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>447</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>448</v>
+      </c>
+      <c r="J59" t="s">
+        <v>449</v>
+      </c>
+      <c r="K59" t="s">
+        <v>450</v>
+      </c>
+      <c r="L59" t="s">
+        <v>451</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>443</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>452</v>
+      </c>
+      <c r="X59" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>455</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>456</v>
+      </c>
+      <c r="J60" t="s">
+        <v>457</v>
+      </c>
+      <c r="K60" t="s">
+        <v>458</v>
+      </c>
+      <c r="L60" t="s">
+        <v>459</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>443</v>
+      </c>
+      <c r="O60" t="s">
+        <v>184</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>452</v>
+      </c>
+      <c r="X60" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>461</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>462</v>
+      </c>
+      <c r="J61" t="s">
+        <v>463</v>
+      </c>
+      <c r="K61" t="s">
+        <v>464</v>
+      </c>
+      <c r="L61" t="s">
+        <v>465</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>466</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>467</v>
+      </c>
+      <c r="X61" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>470</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>471</v>
+      </c>
+      <c r="J62" t="s">
+        <v>472</v>
+      </c>
+      <c r="K62" t="s">
+        <v>473</v>
+      </c>
+      <c r="L62" t="s">
+        <v>474</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>475</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>476</v>
+      </c>
+      <c r="X62" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>481</v>
+      </c>
+      <c r="K63" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>484</v>
+      </c>
+      <c r="O63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>476</v>
+      </c>
+      <c r="X63" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>487</v>
+      </c>
+      <c r="J64" t="s">
+        <v>488</v>
+      </c>
+      <c r="K64" t="s">
+        <v>489</v>
+      </c>
+      <c r="L64" t="s">
+        <v>490</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>491</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>476</v>
+      </c>
+      <c r="X64" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>493</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>494</v>
+      </c>
+      <c r="J65" t="s">
+        <v>495</v>
+      </c>
+      <c r="K65" t="s">
+        <v>496</v>
+      </c>
+      <c r="L65" t="s">
+        <v>497</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>498</v>
+      </c>
+      <c r="O65" t="s">
+        <v>184</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>476</v>
+      </c>
+      <c r="X65" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>500</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>501</v>
+      </c>
+      <c r="J66" t="s">
+        <v>502</v>
+      </c>
+      <c r="K66" t="s">
+        <v>503</v>
+      </c>
+      <c r="L66" t="s">
+        <v>504</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>484</v>
+      </c>
+      <c r="O66" t="s">
+        <v>112</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>476</v>
+      </c>
+      <c r="X66" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>506</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>507</v>
+      </c>
+      <c r="J67" t="s">
+        <v>508</v>
+      </c>
+      <c r="K67" t="s">
+        <v>509</v>
+      </c>
+      <c r="L67" t="s">
+        <v>510</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>484</v>
+      </c>
+      <c r="O67" t="s">
+        <v>112</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>476</v>
+      </c>
+      <c r="X67" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>512</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>513</v>
+      </c>
+      <c r="J68" t="s">
+        <v>508</v>
+      </c>
+      <c r="K68" t="s">
+        <v>514</v>
+      </c>
+      <c r="L68" t="s">
+        <v>515</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>484</v>
+      </c>
+      <c r="O68" t="s">
+        <v>78</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>516</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>517</v>
+      </c>
+      <c r="J69" t="s">
+        <v>518</v>
+      </c>
+      <c r="K69" t="s">
+        <v>519</v>
+      </c>
+      <c r="L69" t="s">
+        <v>520</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>521</v>
+      </c>
+      <c r="O69" t="s">
+        <v>184</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>523</v>
+      </c>
+      <c r="J70" t="s">
+        <v>524</v>
+      </c>
+      <c r="K70" t="s">
+        <v>525</v>
+      </c>
+      <c r="L70" t="s">
+        <v>526</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>527</v>
+      </c>
+      <c r="O70" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>528</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>529</v>
+      </c>
+      <c r="J71" t="s">
+        <v>530</v>
+      </c>
+      <c r="K71" t="s">
+        <v>531</v>
+      </c>
+      <c r="L71" t="s">
+        <v>532</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>527</v>
+      </c>
+      <c r="O71" t="s">
+        <v>78</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>533</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>534</v>
+      </c>
+      <c r="J72" t="s">
+        <v>535</v>
+      </c>
+      <c r="K72" t="s">
+        <v>536</v>
+      </c>
+      <c r="L72" t="s">
+        <v>537</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>527</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>538</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>539</v>
+      </c>
+      <c r="J73" t="s">
+        <v>540</v>
+      </c>
+      <c r="K73" t="s">
+        <v>541</v>
+      </c>
+      <c r="L73" t="s">
+        <v>542</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>543</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>544</v>
+      </c>
+      <c r="J74" t="s">
+        <v>545</v>
+      </c>
+      <c r="K74" t="s">
+        <v>546</v>
+      </c>
+      <c r="L74" t="s">
+        <v>547</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>548</v>
+      </c>
+      <c r="O74" t="s">
+        <v>78</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>550</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>551</v>
+      </c>
+      <c r="J75" t="s">
+        <v>552</v>
+      </c>
+      <c r="K75" t="s">
+        <v>553</v>
+      </c>
+      <c r="L75" t="s">
+        <v>554</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>527</v>
+      </c>
+      <c r="O75" t="s">
+        <v>184</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>556</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>557</v>
+      </c>
+      <c r="J76" t="s">
+        <v>558</v>
+      </c>
+      <c r="K76" t="s">
+        <v>559</v>
+      </c>
+      <c r="L76" t="s">
+        <v>560</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>548</v>
+      </c>
+      <c r="O76" t="s">
+        <v>78</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>561</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>562</v>
+      </c>
+      <c r="J77" t="s">
+        <v>563</v>
+      </c>
+      <c r="K77" t="s">
+        <v>564</v>
+      </c>
+      <c r="L77" t="s">
+        <v>565</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>548</v>
+      </c>
+      <c r="O77" t="s">
+        <v>78</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>566</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>567</v>
+      </c>
+      <c r="J78" t="s">
+        <v>568</v>
+      </c>
+      <c r="K78" t="s">
+        <v>569</v>
+      </c>
+      <c r="L78" t="s">
+        <v>570</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>571</v>
+      </c>
+      <c r="O78" t="s">
+        <v>112</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>572</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>573</v>
+      </c>
+      <c r="J79" t="s">
+        <v>574</v>
+      </c>
+      <c r="K79" t="s">
+        <v>575</v>
+      </c>
+      <c r="L79" t="s">
+        <v>576</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>577</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>578</v>
+      </c>
+      <c r="J80" t="s">
+        <v>579</v>
+      </c>
+      <c r="K80" t="s">
+        <v>580</v>
+      </c>
+      <c r="L80" t="s">
+        <v>581</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>582</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>583</v>
+      </c>
+      <c r="J81" t="s">
+        <v>584</v>
+      </c>
+      <c r="K81" t="s">
+        <v>585</v>
+      </c>
+      <c r="L81" t="s">
+        <v>586</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>587</v>
+      </c>
+      <c r="O81" t="s">
+        <v>112</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>589</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>590</v>
+      </c>
+      <c r="J82" t="s">
+        <v>591</v>
+      </c>
+      <c r="K82" t="s">
+        <v>592</v>
+      </c>
+      <c r="L82" t="s">
+        <v>593</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>594</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>595</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>596</v>
+      </c>
+      <c r="J83" t="s">
+        <v>591</v>
+      </c>
+      <c r="K83" t="s">
+        <v>597</v>
+      </c>
+      <c r="L83" t="s">
+        <v>598</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>594</v>
+      </c>
+      <c r="O83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>599</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>600</v>
+      </c>
+      <c r="J84" t="s">
+        <v>601</v>
+      </c>
+      <c r="K84" t="s">
+        <v>602</v>
+      </c>
+      <c r="L84" t="s">
+        <v>603</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>604</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>605</v>
+      </c>
+      <c r="J85" t="s">
+        <v>606</v>
+      </c>
+      <c r="K85" t="s">
+        <v>607</v>
+      </c>
+      <c r="L85" t="s">
+        <v>608</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>594</v>
+      </c>
+      <c r="O85" t="s">
+        <v>112</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>610</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>611</v>
+      </c>
+      <c r="J86" t="s">
+        <v>612</v>
+      </c>
+      <c r="K86" t="s">
+        <v>613</v>
+      </c>
+      <c r="L86" t="s">
+        <v>614</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>615</v>
+      </c>
+      <c r="O86" t="s">
+        <v>112</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>616</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>617</v>
+      </c>
+      <c r="J87" t="s">
+        <v>618</v>
+      </c>
+      <c r="K87" t="s">
+        <v>619</v>
+      </c>
+      <c r="L87" t="s">
+        <v>620</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>621</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>622</v>
+      </c>
+      <c r="J88" t="s">
+        <v>623</v>
+      </c>
+      <c r="K88" t="s">
+        <v>624</v>
+      </c>
+      <c r="L88" t="s">
+        <v>625</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>626</v>
+      </c>
+      <c r="O88" t="s">
+        <v>78</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>628</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>629</v>
+      </c>
+      <c r="J89" t="s">
+        <v>630</v>
+      </c>
+      <c r="K89" t="s">
+        <v>631</v>
+      </c>
+      <c r="L89" t="s">
+        <v>632</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>633</v>
+      </c>
+      <c r="O89" t="s">
+        <v>78</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>634</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>635</v>
+      </c>
+      <c r="J90" t="s">
+        <v>636</v>
+      </c>
+      <c r="K90" t="s">
+        <v>637</v>
+      </c>
+      <c r="L90" t="s">
+        <v>638</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>633</v>
+      </c>
+      <c r="O90" t="s">
+        <v>78</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>639</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>640</v>
+      </c>
+      <c r="J91" t="s">
+        <v>641</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>633</v>
+      </c>
+      <c r="O91" t="s">
+        <v>112</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>642</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>643</v>
+      </c>
+      <c r="J92" t="s">
+        <v>644</v>
+      </c>
+      <c r="K92" t="s">
+        <v>645</v>
+      </c>
+      <c r="L92" t="s">
+        <v>646</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>647</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>648</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>649</v>
+      </c>
+      <c r="J93" t="s">
+        <v>650</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>647</v>
+      </c>
+      <c r="O93" t="s">
+        <v>78</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>651</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>652</v>
+      </c>
+      <c r="J94" t="s">
+        <v>653</v>
+      </c>
+      <c r="K94" t="s">
+        <v>654</v>
+      </c>
+      <c r="L94" t="s">
+        <v>655</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>656</v>
+      </c>
+      <c r="O94" t="s">
+        <v>78</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>658</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>659</v>
+      </c>
+      <c r="J95" t="s">
+        <v>660</v>
+      </c>
+      <c r="K95" t="s">
+        <v>661</v>
+      </c>
+      <c r="L95" t="s">
+        <v>662</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>656</v>
+      </c>
+      <c r="O95" t="s">
+        <v>78</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>664</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>665</v>
+      </c>
+      <c r="J96" t="s">
+        <v>666</v>
+      </c>
+      <c r="K96" t="s">
+        <v>546</v>
+      </c>
+      <c r="L96" t="s">
+        <v>667</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>656</v>
+      </c>
+      <c r="O96" t="s">
+        <v>78</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>668</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>669</v>
+      </c>
+      <c r="J97" t="s">
+        <v>670</v>
+      </c>
+      <c r="K97" t="s">
+        <v>671</v>
+      </c>
+      <c r="L97" t="s">
+        <v>672</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>673</v>
+      </c>
+      <c r="O97" t="s">
+        <v>70</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>675</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>676</v>
+      </c>
+      <c r="J98" t="s">
+        <v>677</v>
+      </c>
+      <c r="K98" t="s">
+        <v>678</v>
+      </c>
+      <c r="L98" t="s">
+        <v>679</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>680</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>681</v>
+      </c>
+      <c r="J99" t="s">
+        <v>682</v>
+      </c>
+      <c r="K99" t="s">
+        <v>683</v>
+      </c>
+      <c r="L99" t="s">
+        <v>684</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>685</v>
+      </c>
+      <c r="O99" t="s">
+        <v>112</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>686</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>687</v>
+      </c>
+      <c r="J100" t="s">
+        <v>688</v>
+      </c>
+      <c r="K100" t="s">
+        <v>689</v>
+      </c>
+      <c r="L100" t="s">
+        <v>690</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>54811</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>691</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>692</v>
+      </c>
+      <c r="J101" t="s">
+        <v>693</v>
+      </c>
+      <c r="K101" t="s">
+        <v>694</v>
+      </c>
+      <c r="L101" t="s">
+        <v>695</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>696</v>
+      </c>
+      <c r="O101" t="s">
+        <v>52</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>3</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>695</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_513.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="793">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>tlmg1960</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>We booked a room here at the last minute when our original room at another hotel was not ready upon check in. I called the La Quinta and Julia at the front desk quickly and graciously got us into a room in time to shower, dress and make it to our afternoon event. The service and accommodations were outstanding!More</t>
   </si>
   <si>
+    <t>Ed B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r557723872-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>I stayed at this La Quinta from 22- 26 January 2018, primarily because it was a two-minute walk to The Isle at Watercress.  A friend of 50-years standing had been in the Memory Care unit there, with Alzheimers.  She died on Christmas Eve and a Memorial Service/Celebration of Life was to be held there on the 26th.  On the 24th, the Isle had to go a full quarantine status due to an outbreak of flu.  We were faced with suddenly not having a place to hold the ceremony, with multiple people flying in from out of town.  Christie Byrd, the La Quinta manager, moved heaven and earth to clear out their meeting room, which was being used as a storage site for renovation materials to  upgrade the facility.  In about 24 hours she and her staff created an incredible attractive and welcoming venue for what turned out to be a wonderful event.  the La Quinta, as just a motel, already had me ready to give a five-star review,  just for the pool/hot tub and morning breakfast.  The room amenities, particularly the free WiFi and overall ambiance were also perfect.  If you need a place to stay in Mansfield, Texas, look no further.  Oh, did I forget to mention the Military Discount?  My bad!  Cheers...Ed B.More</t>
   </si>
   <si>
+    <t>karenhO6798SM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r581870336-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>What a place! From the moment I pulled into the parking lot until I packed my last suitcase, it made me feel comfortable, safe and ready for my next adventure. Everyone was friendly and helpful. REALLY! All the time. Almost Twilight Zone service and comfort. So good, it's almost scary.More</t>
   </si>
   <si>
+    <t>Z1304JXgabrielc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r561701487-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -264,6 +276,9 @@
     <t>Due to a mix up with online booking our reservation was lost.  The hotel was completely booked yet Emily Gem was miraculously able to find us a room.  Most places would have sent you on your way, which has happened before.  Not here.  Emily went above and beyond to find us a room.  She was relentless and we soooo appreciated it. Christie, the manager, was also instrumental in making our stay happen. The entire staff was also excellent.  I have NEVER seen this type of service before.-Gabe Cano, San Antonio, TXMore</t>
   </si>
   <si>
+    <t>wlc297</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r559581519-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -288,6 +303,9 @@
     <t>We stayed for 2 nights in the newly renovated La Quinta. The room was very nice and spacious for our dogs. Bed was very comfortable and seemed newer. It was very quiet on our floor and check in was seamless. Our only complaint was both nights when we got in from being with family which was late both nights, there were people in the pool area smoking and drinking. You could smell the smoke all the down the hallway. My husband observed the front desk girl interacting with them as if she knew them or was doing them a favor. Not sure why that was allowed to fly in a smoke feee hotel. More</t>
   </si>
   <si>
+    <t>U9815WMcynthiac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r555858160-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -312,6 +330,9 @@
     <t>Nice hotel convenient location to several restaurants I would recommend this hotel to anyone. Comfortable Beds and large bathrooms. I personally didn’t get to swim but a very nice swimming pool area just the right size!More</t>
   </si>
   <si>
+    <t>sunflowerangel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r554025751-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -336,6 +357,9 @@
     <t>We had a great stay! Check in was smooth, room was clean, furnishings was in good shape. Only negative was the beds were a little harder than I like.  We were on the 4th floor and it was very quiet at night. Would not hesitate to stay here again when back in Mansfield.More</t>
   </si>
   <si>
+    <t>T P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r550756607-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>Pros: The room had a switch next to the bed that would turn off the light by the door. Unfortunately, that's all I can think of. Cons: Only one luggage cart available, noisy people on the 2nd floor all day, pool area was closed, clerk spent 5 minutes on a personal call and ignored me when I first arrived to check in, clerk didn't arrive for checkout until I called the desk and it rang two times, rooms still look at least 30 years old after supposed "remodeling," shower pressure is weak and only runs well with a stream that's the diameter of a garden hose, missing usual items provided in the rooms such as cups, blowdryer, iron, etc. This hotel should be downgraded from a 2.5 star to a 2.More</t>
   </si>
   <si>
+    <t>Military2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r550656703-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -381,6 +408,9 @@
     <t>We had a great experience.  My wife and I enjoyed our stay and called last minute to get a room and they saved one for us.  Thank you!!!  This was a great experience for us. I definitely recommend staying here More</t>
   </si>
   <si>
+    <t>clankard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r550345307-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
     <t>The hotel rooms look "tired".  No Kleenex.  No extra rolls of toilet tissue.  No cleaning when desired. Items stolen from my make up kit.  Mansfield Texas, Room 312 Telephone didn't work.  Wi Fi slow and when I asked the front desk they had no clue how to be helpful, such as a simple, wait a few moments and try again because the hotel was full that night.More</t>
   </si>
   <si>
+    <t>Carlosvl2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r547056554-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -426,6 +459,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>ScottLouisiana11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546303453-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -447,6 +483,9 @@
     <t>Many hotels remodel, yet have unmotivated or disinterested staff and ownership.The staff at this La Quinta is pleasant, competent, and professional at all times, even with petty difficult people.The facility is well kept and they have just finished redoing the bath vanities, lighting, and paint.  Carpet has done in alll the rooms I’ve been in and i heard there is more work scheduled. I  heartily recommend this hotel, and have seen some infantile custoers making a scene at the front counter, thinking they look big...just like the thinking of some of the writers of  negative reviews below.  I’ve stayed here scores of times in the last couple of years, and the staff is more helpful with a friendlier outlook than other hotels in the area.More</t>
   </si>
   <si>
+    <t>824isaia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546210726-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -462,6 +501,9 @@
     <t>The hotel was clean and in a very good location the breakfast was good a lot to choose from room was very comfortable and the front lady desk were very nice. I really didn't have any complaints for this hotelMore</t>
   </si>
   <si>
+    <t>dhgallegos51</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546187623-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -477,6 +519,9 @@
     <t>Will stay there again and will recommend to friends. The location is very convenient to most needs on our trip especially to the hospital where friend was being treated. If I need to go back to Mansfield I will stay at this hotel.More</t>
   </si>
   <si>
+    <t>ClosetDoorProduction</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546153781-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>My experience was great from the time I walked in the door. The staff was very professional and happy. The lobby was bright and clean. The room was clean and inviting. The bathroom was very nice size and very clean. I had just come from Las Vegas and the bed was very uncomfortable but the bed here was like being at home and I slept very well.More</t>
   </si>
   <si>
+    <t>H9378HNsharonw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r546026682-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -508,6 +556,9 @@
   </si>
   <si>
     <t>I have stayed at this hotel multiple times.  I've always experienced great customer service.  The rooms have always been in great condition.  It's close to restaurants and shopping locations.  During my last stay they were going through a remodel.  It did not affect my stay and I am excited to see what everything looks like now.  I would recommend this hotel to family, friends, and anyone looking for a place to stay in Mansfield!More</t>
+  </si>
+  <si>
+    <t>The_TravelingBusters</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r544901190-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
@@ -550,6 +601,9 @@
 Thought it was funny since I had just written a review, on a Saturday morning, complementing another La Quinta about their biscuits &amp; gravy, just before coming down stairs for...My Mother lives at Watercrest which is basically next door to La Quinta Inn &amp; Suites.  Always clean, always accommodating.We drove from Santa Barbara, CA and arrived one day early for our seven day Thanksgiving reservation.  The La Quinta reservations rep said we would have to stay somewhere else one night before checking in the next day. We called La Quinta Inn Mansfield directly and they were able to check us in one day early in spite of construction.  We have two dogs-one is a puppy-so we really appreciated the room close to the stairs so we could get outside fast.Great staff, great room.No room cleaning on Thanksgiving Day, but the young man behind the desk that night was very accommodating by making sure clean towels were available.  (By the way:  Those Cowboy fans were already pissed when they came back that night, so don’t let them get you down.)Didn’t see much of the day staff as we gone during the day.  Rebecca and the other night staff are fantastic.  We are “La Quinta Returns” members so we stay at other La Quintas on holiday road trips.La Quinta Inn &amp; Suites Mansfield is the only one which does not have biscuits &amp; gravy on weekends.Thought it was funny since I had just written a review, on a Saturday morning, complementing another La Quinta about their biscuits &amp; gravy, just before coming down stairs for breakfast to discover the local “No Biscuits &amp; Gravy On Weekends” policy.  You get biscuits on Monday but no gravy.  Oh well, no biggie, really.Thanks for another pleasant holiday stay in Mansfield.Jay, Anne, Topeka &amp; BakerMore</t>
   </si>
   <si>
+    <t>lauracH1564MI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r540332019-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -574,6 +628,9 @@
     <t>Ms. Rebeka, at the front desk is a joy.  Very considerate and helpful. It had been a long,  grueling  drive, and her pleasant assistance was greatly appreciated  Our room was very clean everything worked properly.More</t>
   </si>
   <si>
+    <t>jamesbU5908BX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r539991838-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -592,6 +649,9 @@
     <t>My girlfriend and I try to do a date night away from the children and we had an emergency and had to cut our stay short we were only there a couple hours however the manager said that we were there over 5 hours I ask for a refund she refused I'm also being charged twice on my account for the stay over $140 each time. I'm very frustrated and upset I would not recommend this place to anybody anymore. I don't believe it was handled appropriately. I should have received a refundMore</t>
   </si>
   <si>
+    <t>claudeb746</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r539884305-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -610,6 +670,9 @@
     <t>The Staff is A-1. The service and accommodations are far , far superior to other Well know chains After losing Everything from Hurricane Harvey , The staff made me feel as one of the family  Prim and ProperMore</t>
   </si>
   <si>
+    <t>CecilRM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r509207422-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -637,6 +700,9 @@
     <t>Adequate; relatively new and convenient (on this trip).  Price was very good ... room comfortable and relatively clean; bath needed attention.  Breakfast was some of the ususal ... but hot dishes needed to be hotter; selection was smaller than usual and quality below.  Not a big deal; there are plenty of good breakfast places in the area; just disappointing.More</t>
   </si>
   <si>
+    <t>MissT918</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r501863484-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -649,6 +715,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>davidyJ7628GW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r500596006-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -673,6 +742,9 @@
     <t>No a/c in room just hot air.  Thought it would take a little while to cool but woke up at 2am and it was hot and humid.  Too tired to move at that time so waited til morning.  Told manager but not even an apology.  Instead said ok will look at it and went outside to smoke.  She assumed it had been a comp room we stayed in when in reality we paid.  We had occupied 2 rooms since kids were with us.More</t>
   </si>
   <si>
+    <t>Lifeisonce</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r497720270-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -700,6 +772,9 @@
     <t>Overall the hotel was okay. However the room was not the cleanest and the beds didn't look as though the sheets were changed before I checked in. The service was great and I really enjoyed the location of the hotel. More</t>
   </si>
   <si>
+    <t>dlchurch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r494687493-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -718,12 +793,18 @@
     <t>I found Hannah to be extremely polite and helpful.  She was open, friendly, and willing to answer any and all questions (unlike the earlier individual behind the counter at check-in--I have to say she was very rude).More</t>
   </si>
   <si>
+    <t>afl0res44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r494657922-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
     <t>494657922</t>
   </si>
   <si>
+    <t>scottmO2311PI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r486042568-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -751,6 +832,9 @@
     <t>I am normally a fan of La Quinta but this one totally misses the mark. Filthy rooms, reservations mix ups, bad A/C and poor cleaning staff. Supplies in room not properly replenished on 3 night stay. Microwave was place where plug would not reach.More</t>
   </si>
   <si>
+    <t>bulletbob53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r479654513-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -769,6 +853,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Hope S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r459741360-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -787,6 +874,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Leayh M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r452538042-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -805,6 +895,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>jastan39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r404324489-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -832,6 +925,9 @@
     <t>Very clean and comfortable. We have stayed at this La Quinta before and have always appreciated the friendliness and helpfulness of the staff. I'm sure we will stay there again in the future. Food is always good, alsoMore</t>
   </si>
   <si>
+    <t>cliffordg4040</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r399645403-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -850,6 +946,9 @@
     <t>There was a shortage on face towels and was less and less everyday. Also the showers and sinks are not average height for the average person. We also had a slight fly and gnat problem in our room as well as our room wasn't vacuumed daily. Other than that service at the front desk was excellent and the manager Angelina did her best accommodate accordingly. More</t>
   </si>
   <si>
+    <t>Scott R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r399384165-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -868,6 +967,9 @@
     <t>We stay at many La Quintas but this was the worst experience ever with customer service. Front desk worker(Dawn) was very rude 2 nights in a row. Don't ask her for any help b/c she will act put out that she has to do anything. Totally unacceptable!! Room not cleaned!!More</t>
   </si>
   <si>
+    <t>bessiedear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r398644404-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -892,6 +994,9 @@
     <t>After realizing we had not made a reservation at a nearby Hilton property that we thought we had (and they were sold out for the night), we saw this property nearby. It looked great so we decided to give it a try.  Big mistake.  Looked great from the street and the lobby was bright and clean, though the desk clerk was not very helpful, informative, or professional.   Our king room was nice at first look....comfy bed, nice roomy bathroom, fridge/microwave, all looked clean.  We later found stains on the sheets, and mold/moisture growing behind the granite in the tub/shower.  We were told they will be doing upgrades to the rooms in the near future, but that is not acceptable when you are there now.  We usually always check Trip Advisor first before making a reservation anywhere, and the one time we didn't........BAM!  The previous reviews would have given us adequate warning.  We learned our lesson the hard way.  We also lost trust in the La Quinta brand.More</t>
   </si>
   <si>
+    <t>gracybreslin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r398212627-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -901,6 +1006,9 @@
     <t>07/27/2016</t>
   </si>
   <si>
+    <t>188darienc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r384930754-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -913,6 +1021,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r384223975-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -937,6 +1048,9 @@
     <t>Heather was a professional host that exceeded our help.thanks to her we stayed this long. (40 days).we will stay here again due to the services here.this is the best hotel we have stayed at hands down...   More</t>
   </si>
   <si>
+    <t>ed5675</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r383667962-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -958,6 +1072,9 @@
     <t>You can see, from the moment you walk in this place is very nice. Staff was kind, upgrades are coming along. You learn to appreciate the smiling faces and great conversation every morning. This is the place to be in Mansfield!More</t>
   </si>
   <si>
+    <t>lawms1121</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r382445957-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -976,6 +1093,9 @@
     <t>We have family in the area and always stay at the LaQuinta with no problems but this recent stay we were very disappointed in the hotel and the room. Room in bad need of paint and cleaning.  Bedspread had stains. Bathroom had cracked or missing tiles.  Upon entering the hot room it smelled of urine and after turning on the AC it smelled of mold and I honestly say the hotel has the worst coffee I have ever had. I will have to rethink about ever staying here again.More</t>
   </si>
   <si>
+    <t>Funtraveler2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r382204070-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -994,6 +1114,9 @@
     <t>They say the devil is in the details and that was true of our experience at this La Quinta. We arrived to a very inviting car port entry with lots of flowers. However, right above the front door there were lots of cob webs and a poor sheet rock patch repair on ceiling. The front doors open to a large updated lobby. However, no one was at the front desk. I waited several minutes and then a young girl arrives. She is friendly but scattered and unorganized. We go to the elevator and notice that hallways are updated, only to get off the elevator and smell a musty cigarette smell in the hallways. We open the door to the room and it looks like it had been updated, but the carpet, curtains and some of the furniture were stuck in the 1970's. One a positive note, the bed was great and the breakfast was ok. Overall, this place has some promise but you can tell the owner and management are not focused. If you had to stay with La Quinta, I would drive over to Burleson or the South Arlington location. Both provided a better overall experience.More</t>
   </si>
   <si>
+    <t>Jesse H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r361867588-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1138,9 @@
     <t>The hotel was clean and newly remodeled. We stayed 4 nights with no problems. The breakfast was decent and the staff was helpful and friendly. If I'm ever back in Mansfield, I will stay here for sure!Definitely the nicest LaQuinta I've ever stayed at.More</t>
   </si>
   <si>
+    <t>Lil-O-Me77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r360463124-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1036,6 +1162,9 @@
     <t>Upon arriving at tge LaQuinta Mansfield on March 25th, 2016, i was greeted with an inviting smile and a friendly positive attitude from Rhyan. I had decided to stay at this location because i frequent the VFW every friday nite thats around the corner. At first I wasnt sure it was going to be a good stay due to the renovations going on, however to my surprise and unless i was coming or going i ciuldnt tell. The staff was very polite n courteous. In fact because of the positive staff and location i will be returning on a regular basis. I recommend this hotel to others if your looking for a hotel thats clean with a professional friendly staff. To me that makes all the difference. Thank you and i will be back April 1st, 2016. More</t>
   </si>
   <si>
+    <t>LONNIE T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r360182288-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1054,6 +1183,9 @@
     <t>The new renovations Are amazing, good job! I stay a few nights, everyone one was very friendly,  room was clean, bed was great, plenty of hot water for the shower! I will stay here again when i come back!Thanks Angelina for all the help!More</t>
   </si>
   <si>
+    <t>Misty A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r357136310-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1072,6 +1204,9 @@
     <t>The hotel is going through a renovation which means materials lying around the halls and workout room, but I'm sure the hotel will look fantastic once all the work is completed. Our queen beds were very comfortable and the bathroom was very roomy. We did find some crumbs on the carpet and desk that had not been cleaned, but overall, the room was in good shape. Our kids enjoyed the pool, although it was VERY cold. I used the treadmill in the workout room, even though, as mentioned above, there was a mess left by the workers. We appreciated a  variety of breakfast items, waffles, fruit, oatmeal, cold cereal, eggs, sausage, bagels, toast, and more. However, the hotel could use more tables and chairs to accommodate the amount of guests who were there for breakfast, as many people either had to stand or take food back to their rooms. Overall, we had a great stay and will come back when in the area again. More</t>
   </si>
   <si>
+    <t>JP C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r356450713-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1090,6 +1225,9 @@
     <t>Friendly and helpful staff.  Renovations look AMAZING. Saw a lot of hard work happening to bring the place together. Breakfast was great, enjoyed the flavored coffee creamers. Be back soon to see all the changes! More</t>
   </si>
   <si>
+    <t>Juan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r328804989-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1108,6 +1246,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Vegas_Gar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r323643871-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1135,6 +1276,9 @@
     <t>Had to get a last minute hotel in a Saturday night and we came here. The prices aren't bad and the room was nice, can't ask for much more than that. The room had plenty of space and the bed was comfy. The bedding was very nice, too. My one problem was that the shower head was too low (see picture), but that happens a lot. Enjoyed my stay.More</t>
   </si>
   <si>
+    <t>GlobetrotterBella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r319645951-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1159,6 +1303,9 @@
     <t>I would say this hotel is acceptable. It's not close to anything, so expect a 30-45 min drive everywhere. The hotel itself is clean and the staff was friendly. The room had a moldy smell to it. I sprayed febreeze, but it still smelled. The room looked clean and was spacious. The beds were comfortable. The area is quiet. They have a fridge and microwave. Shampoo and soap is provided. The AC worked good, but we did have to put it at 66 to cool the room. The break was was great. They have waffles, hard boiled eggs, scrambled eggs, sausage patties, yogurt, cereal and fruit. I can't say much about the pool since I didn't use it. It is an indoor pool and they also have a gym. The were also offering a gym pass to lifetime fitness. I would probably stay closer to main attractions if I ever return to the Dallas area. More</t>
   </si>
   <si>
+    <t>Maria F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r319096847-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1177,6 +1324,9 @@
     <t>Loved this hotel!  The location is great.  Your are close to restaurants, pizza place and donuts shop within walking distance.  The room was very clean with micro wave and fridge.  Breakfast was OK and always plenty of everything.  The front desk staff and cleaning staff were all very nice.More</t>
   </si>
   <si>
+    <t>J M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r306494724-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1204,6 +1354,9 @@
     <t>We stayed at this establishment in the second week of July for the Little League World Series at Big League Dreams (right down the road) and we were very satisfied with the entire experience.  The breakfast buffet was terrific, the rooms were clean, comfortable and spacious and the staff was very helpful.  The hotel is conveniently located close to the freeway (but quiet), shopping and restaurants.  The parking is secure and the grounds are very well maintained.  The one drawback to our experience was the pool.  It's indoors, and the water temp is nice, but the decking is old, the walls are cracked and moldy along the baseboards below the windows (facing the parking lot) and the room seriously lacks visual appeal.  The Jacuzzi was clean (as was the pool) and plenty of towels were available.  The weight room was nice, but the equipment needs fine tuning.  Overall, we were satisfied with our stay and would recommend this hotel to anyone who needs an extended stay (or even a night).More</t>
   </si>
   <si>
+    <t>Jaison P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r304963852-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1231,6 +1384,9 @@
     <t>Very good and comfortable beds. Neat and well maintained by facility staff  . Breakfast was above average. Staff service was good with clean lobby.  I will definitely stay here during my next visit and recommend it.More</t>
   </si>
   <si>
+    <t>Monica C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r303579870-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1255,6 +1411,9 @@
     <t>We stay at this hotel regularly for soccer games.  The staff are very friendly, the place is clean.  We enjoy the fact that the the pool and work-out facilities are open 24 hours.  There is also a delicious pizza place (Mama's)  right across the parking lot.More</t>
   </si>
   <si>
+    <t>Jane J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r294294016-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1279,6 +1438,9 @@
     <t>The stay at LQ Mansfield was not on the itinerary, we just got too tired to keep driving. I booked online, and five minutes later, after we exited the freeway and made the u-turn, we were checking in. The hotel is in very good condition, clean and experienced, friendly staff. Pet policy seals the deal for us, no fee, no hassle !More</t>
   </si>
   <si>
+    <t>Diana G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r293568999-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1303,6 +1465,9 @@
     <t>we checked in Friday night everything was awesome room was wonderful the only thing was the room was a bit hot even at the AC being 60 degrees but that was fixed immediately.We left Saturday morning came back in the afternoon and the room was spotless, customer services was great too.More</t>
   </si>
   <si>
+    <t>Twolip29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r283677684-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1486,9 @@
     <t>Responded June 29, 2015</t>
   </si>
   <si>
+    <t>Janet C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r270295407-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1348,6 +1516,9 @@
     <t>This is a nice hotel and the staff is very friendly.  The pool is open 24 hours so it was great for the kids when coming in late.  The breakfast was very good, including the eggs.  The rooms were clean as well as the bathroom.More</t>
   </si>
   <si>
+    <t>83kellies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r269177840-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1375,6 +1546,9 @@
     <t>We stayed at this location to attend the Scarborough Renaissance Faire.  This hotel was across the street from a Petsmart with a Petshotel, so we were able to take advantage of doggy day care for our old whippet and still have him sleep with us in the hotel at night.  La Quinta is pet friendly, a plus for me.   Only issue this trip was the internet was down all weekend.  Bummer.More</t>
   </si>
   <si>
+    <t>stelac196</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r264651109-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1417,6 +1591,9 @@
     <t>We make a stop at this hotel about 4 times a year. Always top shelf service, breakfast included , received water at check in at the desk !! Checkin clerk friendly and polite !! Checkout could not have been easier.More</t>
   </si>
   <si>
+    <t>mike a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r260700605-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1444,6 +1621,9 @@
     <t>We stayed for longer than we anticipated due to the ice storms a few weeks ago. Hotel is walking distance to shops and eateries which proved to be very important since we were unable to drive! Staff and managers were very accommodating with the weather conditions, I saw them driving staff to and from work because of the icy roads!More</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r240393617-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1471,6 +1651,9 @@
     <t>Excellent, clean hotel.  Breakfast was very good andoffered a variety of items.  Clean rooms and staff was very helful and accomodating.  I would highly recommend this hotel to anyone visiting the Dallas-Fort Worth area for sports events or Six Flags.  Good location.More</t>
   </si>
   <si>
+    <t>gblackledge</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r238798594-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1492,6 +1675,9 @@
     <t>I stayed one night here with my kids as we were passing through town. The beds were VERY comfortable, we enjoyed a good nights sleep after traveling. Our room did have a bit of an odor to it, but nothing that we couldn't live with for the night. The kids utilized the pool, which to me was unremarkable besides some dead roaches under the table, but at least they were dead I guess. The front desk staff were very helpful and wonderful. I would stay here again.More</t>
   </si>
   <si>
+    <t>jdwms</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r229765046-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1513,6 +1699,9 @@
     <t>We have family in the area and stayed here with our 3 dogs overnight 9-13-14. Hotel was clean and staff personable. Breakfast was sufficient for our needs the next morning. The only reason I only gave an average rating was having pet rooms on the 2nd floor instead of the 1st floor and the caulking around the tub had a couple of mildew spots and there were also several areas of paint peeling around the door facings in the hall on the 2nd floor. Overall a good experience.More</t>
   </si>
   <si>
+    <t>Celeste D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r221110186-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1534,6 +1723,9 @@
     <t>The overall service and appearance of the hotel was good. However, when we arrived to check in the elevator had broken down with a person in it. We were placed on the third floor and told that the elevator would be repaired that evening, but it was not so we ended up walking 3 flights of stairs the entire stay. The breakfast was good but the coffee had run out when we arrived around 8 AM breakfast was supposed to be served till 9:30 and the attendant didn't seem to be working until another gentleman showed up and actually took over. The location the room and the stay was good was just disappointed about the elevator issue.More</t>
   </si>
   <si>
+    <t>Gary G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r211174686-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1552,6 +1744,9 @@
     <t>Actually, they were voted the best hotel in Mansfield in a recent poll.  The location is great, with nearby parks and restaurants, some within walking distance.  The area is safe for exercise, and the complimentary pass to Lifetime Fitness is a bonus.  The staff is knowledgeable and friendly, and the property is new and well maintained.  The price is certainly a great value.More</t>
   </si>
   <si>
+    <t>Joseph H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r210112773-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1570,6 +1765,9 @@
     <t>As a frequent patron of this hotel I have never had a problem with any of the rooms. They are always clean and ready when I arrive. This hotel is always upgrading their amenities to serve their customers and the staff is surpurb!More</t>
   </si>
   <si>
+    <t>BoutiqueHotetraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r209838831-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1582,6 +1780,9 @@
     <t>We had to go to Mansfield for a graduation and unfortunately this was our most convenient option for a hotel. The rooms stunk of old cigarette smoke and the bathrooms are moldy and outdated. We stayed two days and even after they "cleaned" the rooms, we came back to the dirty dishes we left from breakfast and none of the toiletries in the bathroom had been replenished.   When we had a problem with the waffle maker at breakfast, the only staff member to help didn't speak or understand a word of English.</t>
   </si>
   <si>
+    <t>490garyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r207777295-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1600,6 +1801,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>Kim G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r205371566-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1618,6 +1822,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Brenda O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r203679959-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1633,6 +1840,9 @@
     <t>I always travel with my dogs.  Not all hotels welcome dogs with open arms, but this one does.  Very accommodating, comfortable, and reasonable. I use this hotel when I visit my mom, who lives at a nearby nursing home.  Highly recommend.</t>
   </si>
   <si>
+    <t>Lora S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r203679887-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1648,6 +1858,9 @@
     <t>One of the friendliest motels I have stayed in.  Check in and check out was quick.  We were greeted every time we entered the lobby with a smile.  Very clean and up to date.  In a very nice area of town.  One of my biggest concerns when selecting a motel is security.   There was no problem at this location.</t>
   </si>
   <si>
+    <t>tippytoeknows</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r200972637-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1663,6 +1876,9 @@
     <t>Let me start with the positive things.  This hotel is in a great location, within walking distance of some great restaurants, pets stay free and has an indoor pool.  The negatives.. I killed a roach and spider upon entering my room and staff lacks great customer service, just mediocre at best.</t>
   </si>
   <si>
+    <t>Reagansmom13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r200712570-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1684,6 +1900,9 @@
     <t>My daughter and I (along with our cat) stayed here two nights, March 21-23.  Our check in process was smooth, The young man at the front desk was warm and friendly.  I could tell he took pride in his job.  Our room was clean and had no odd smells.  The hotel was immaculately clean.  The marble tile floors were literally sparkling.  Every staff member I encountered offered a friendly greeting.  The only reason I'm giving a 4 star Very Good rating is that the indoor pool was very cold, the kids were freezing.  Otherwise, I was pleased with our stay and if I ever find myself in the area we would stay here again.More</t>
   </si>
   <si>
+    <t>Mystery2you</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r200161829-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1717,6 +1936,9 @@
     <t>Our soccer team stays at this hotel for our games in Arlington.  The staff are very friendly and it is nice to have 24 hour access to all amenities, including pool and work out room.  The breakfast is good, breakfast area, rooms and pool/work out areas are always clean and maintained.</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r198994803-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1750,6 +1972,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Bethanykris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r188697759-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1765,6 +1990,9 @@
     <t>We were in town to visit family who lives there and they recommended us to this hotel. It is a gorgeous hotel and Manny at the front desk was very helpful. We did not want to drive and he was helpful in finding restaurants that were walking distance. The hotel has 5 or 6 restaurants you can walk to. One of my favorite hotels</t>
   </si>
   <si>
+    <t>confirmedrealist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r188633197-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1780,6 +2008,9 @@
     <t xml:space="preserve">Visited the area for a Christmas party. My only complaint was the heat. If I set it any higher than 65 it was suffocatingly hot and never clicked off but at 64 it was ice cold in the room. Found myself getting up and down all night to adjust the temperature.  </t>
   </si>
   <si>
+    <t>Tichiganblues</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r188323108-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1801,6 +2032,9 @@
     <t>On a recent business trip I found myself looking for a comfortable resting place before my morning business...  I had passed up multiple options in Fort Worth hoping for something closer to my destination...  It was late and it was raining so I didn't want to travel much farther... As luck would have it, I stumbled upon the La Quinta and stopped to see if they had a vacancy...  Again, lucky me, they had a double Queen room on the second floor and offered me a discounted rate of $80 which was lower than I expected...  When I got to my room, I was even more impressed...  Roomy, clean, comfortable...  Free Wi-Fi, hot breakfast in AM and large, HD TV with HBO...  This was one of the best values I have experienced around the country...  Easy access from Hwy 287 and close to Dallas and Ft. Worth...  I'm sure I saved a boatload of money and had a great stay...  Oh, and there's a spacious pool and health facilities...  Thanks...  TichiganbluesMore</t>
   </si>
   <si>
+    <t>headraccoon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r157234968-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1819,6 +2053,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>F5871ZOjamesm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r157190972-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1831,6 +2068,9 @@
     <t xml:space="preserve">My medical seminar was in Arlington near 6 Flags and thankfully, the LaQuinta in the immediate area was booked. The Mansfield LQ Inn proved to be an inspired choice. It's proximity to restaurants and shopping is excellent. the 12 mile drive to my seminar was facilitated by using Cooper to travel from the Inn to Randol Mill Road in approximately 16 minutes. A very clean and undisturbed stay!Jim Morris </t>
   </si>
   <si>
+    <t>Sammie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r157115630-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1846,6 +2086,9 @@
     <t>As always room was clean and a real plus was Jacuzzi in the room.I've yet to be disappointed with my stay. The breakfast does need to improve but I'm not big on breakfast so it was OK with me. Otherwise I would recommend this hotel.</t>
   </si>
   <si>
+    <t>AZbizguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r156909034-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1864,6 +2107,9 @@
     <t>I was visiting on business and have stayed here a couple of times for about a week at a time. The staff are friendly and helpful.  Its quiet and clean and no drama - no excuses.  They go out of their way to make you happy.  I arrived after being up almost 24 hours due to airline delays and got there about 5-6 AM and it was of course before check-in - check out time.  The nice young lady at the front desk could have read me the chapter and verse out of the rule book that many hotels use to hide behind not helping instead she had a room where the lock was broken and only the main key worked - it was scheduled to be fixed that day.  She let me in and I got about 6 hours sleep - when I got up the next person on shift had a key ready and delivered it to me.  Full service hotels dont do this for 250 dollars a night - this simply blew me away.  Now - about the place overall - not only are the staff first rate it has everything you need and nothing you dont need. Free wifi, free breakfast, indoor hot tub and pool, my king room is large and has recliner, sopha and king bed, fridge, microwave, free parking (I know its expected but you cant count on it) close to shopping, places...I was visiting on business and have stayed here a couple of times for about a week at a time. The staff are friendly and helpful.  Its quiet and clean and no drama - no excuses.  They go out of their way to make you happy.  I arrived after being up almost 24 hours due to airline delays and got there about 5-6 AM and it was of course before check-in - check out time.  The nice young lady at the front desk could have read me the chapter and verse out of the rule book that many hotels use to hide behind not helping instead she had a room where the lock was broken and only the main key worked - it was scheduled to be fixed that day.  She let me in and I got about 6 hours sleep - when I got up the next person on shift had a key ready and delivered it to me.  Full service hotels dont do this for 250 dollars a night - this simply blew me away.  Now - about the place overall - not only are the staff first rate it has everything you need and nothing you dont need. Free wifi, free breakfast, indoor hot tub and pool, my king room is large and has recliner, sopha and king bed, fridge, microwave, free parking (I know its expected but you cant count on it) close to shopping, places to eat... Better than full service hotel and much less money.  You cant go wrong here no complaints at all - its my go to place when I am here and I recommend to everyone coming to the area.More</t>
   </si>
   <si>
+    <t>Chris T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r155905121-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1882,6 +2128,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>KatrenaCarson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r150698745-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1897,6 +2146,9 @@
     <t>I have stayed with this La Quinta for years now for business trips and I have enjoyed each and every part of it! The staff is so lively and always willing to accommodate your every needs. Not to mention the manager's special they had going on the nights I was there! Who wouldn't enjoy a evening like that? The long days of work were certainly made easy with the staff's effort and hotel accommodations! Keep up the good work!</t>
   </si>
   <si>
+    <t>CTZ98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r149076520-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1918,6 +2170,9 @@
     <t>Got a standard room with 2 queen beds. Encountered musty odor immediately upon entering. Traced it to the maroon comforters on the bed - looks like it had never been washed. Blanket was thin, pillows hard, tv reception was horrible. Checked out after 1 night, came back later that evening to get another night and the front desk refused to give me the same rate ($79), asked for $89. I said no thanks, went down the street to Hampton Inn and got same room for $85. Turns out no musty odor, nice soft pillows, clean-feeling comforters, tv reception much better, decor nicer, entire hotel feels fresher and brighter. Pick Hampton Inn instead!More</t>
   </si>
   <si>
+    <t>CowboyBawb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r148507419-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1936,6 +2191,9 @@
     <t>December 2012</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r148228018-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1951,6 +2209,9 @@
     <t>We selected the higher rated room with great expectations which were not altogether met.  The TV was seriously outdated and the remote control was not adequate.  We were unable to select Closed Captions.  The TV was a large dinosaur with poor sound control and a very dark picture.  The advertised hot breakfast was very lacking in quality and variety.  There were several occasions when there was no one attending the front desk.  On the other hand, the staff that was encountered was friendly and the hotel was spotless.  Given the choice, I would hesitate to select La Quinta again.  I have been spoiled by Drury.</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r147720036-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1960,6 +2221,9 @@
     <t>12/19/2012</t>
   </si>
   <si>
+    <t>Kristen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r135964221-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1978,6 +2242,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Randy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r134124981-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -1987,6 +2254,9 @@
     <t>07/11/2012</t>
   </si>
   <si>
+    <t>gregoryp889</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r132373901-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2026,6 +2296,9 @@
     <t>We arrived at the LQ Mansfield as a first time LQ guest. Once we made it to the check in desk (there was a couple ahead of us), we found the front desk agent very friendly, speedy and very professional. We would have like to have been told how to get to the hotel elevator, but we found it - no big deal. We had a huge room (416) with king bed, and a sitting area that had a loveseat, table, writing desk, and recliner. The recliner was very comfortable. The room accommodations were VERY nice. Lots of pillows on the bed, refrigerator, microwave and a TV that some of the channels were not working, but we were here for a high school graduation, so we didn't watch too much TV.  The bath was large with tub/shower combo and it was well stocked with towels etc. There was a hair dryer and mini coffee maker in the bathroom. We would have liked to see more variety in the bathroom amenities - it had 1 wipe for makeup removal, a small bottle of moisturizer in a basket display on the bathroom counter lined with a washrag - very nice touch for this quality of hotel, but our disappointment was the "combo" shampoo/conditioner. It was OK, but would have liked to see 2 separate bottles. the hotel floors were spotless. The walk from the lobby area to the elevators and beyond to...We arrived at the LQ Mansfield as a first time LQ guest. Once we made it to the check in desk (there was a couple ahead of us), we found the front desk agent very friendly, speedy and very professional. We would have like to have been told how to get to the hotel elevator, but we found it - no big deal. We had a huge room (416) with king bed, and a sitting area that had a loveseat, table, writing desk, and recliner. The recliner was very comfortable. The room accommodations were VERY nice. Lots of pillows on the bed, refrigerator, microwave and a TV that some of the channels were not working, but we were here for a high school graduation, so we didn't watch too much TV.  The bath was large with tub/shower combo and it was well stocked with towels etc. There was a hair dryer and mini coffee maker in the bathroom. We would have liked to see more variety in the bathroom amenities - it had 1 wipe for makeup removal, a small bottle of moisturizer in a basket display on the bathroom counter lined with a washrag - very nice touch for this quality of hotel, but our disappointment was the "combo" shampoo/conditioner. It was OK, but would have liked to see 2 separate bottles. the hotel floors were spotless. The walk from the lobby area to the elevators and beyond to the upper floors were shiny shiny shiny and the carpets on the floors (where guest rooms are) was immaculate. There was PLENTY of hot water for showers and overall we got a great night's sleep. We chose this hotel because on the LQ website - it states that ALL hotels offer the Simmons Beautyrest mattresses (we have this bed at home) and we absolutely love it. We sleep like we are on a cloud; but here we found the mattress to be thin with the "foam crate" stuff between the mattress and top sheet. Once we got settled in to bed, we found it satisfactory and settled in for a great nights sleep. The following morning, we were PLEASANTLY surprised by the excellent buffet breakfast "spread".  Of all the mid-priced hotels (and I am a travel agent) we found LQ's breakfast to be the BEST of any compared to say Hampton, HI Express etc. HUGE variety, hot food that was supposed to be hot / cold food that was supposed to be cold. Starting from the scrambled eggs, sausage, waffle maker, huge fresh fruit spread, all kinds of pasteries, 4 or 5 types of fruit juices, several full coffee pots, a refrig that had pudding, yogurts, hard boiled eggs and other things. we waked up on the bright side! Overall a GREAT stay!More</t>
   </si>
   <si>
+    <t>B6250FAlindal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r131481956-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2036,6 +2309,9 @@
   </si>
   <si>
     <t>Make sure you have your free night in writing because the manager "Sim" will not return your calls regarding this.  I am still waiting on his call.</t>
+  </si>
+  <si>
+    <t>Aimless</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r119607316-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
@@ -2065,6 +2341,9 @@
 The bathroom felt cramped and the tub was only about 12" deep - it had NO soap dish or any other shelf to put your toiletries, so I was having to repeatedly reach wayyyy down to pick up/put down my shower gel, shampoo, conditioner, face wash, etc.  What a pain!  They supplied...I've stayed in Mansfield several times before while visiting family and have had varying experiences, from downright awful (Comfort Inn) to almost outstanding (Holiday Inn Express).  This time I was staying longer than usual, and needed to stay on a tighter budget than the HIE would allow.  I decided to split my time between the Hampton Inn &amp; Suites (3 nights) and the La Quinta Inn &amp; Suites (5 nights), based on discount codes that made the rates almost equal, and I wanted to see what they were like.  The La Quinta was a step down from the Hampton, which was a step down from the HIE.  There's really nothing "wrong" with the La Quinta, just lower quality, from the beds to the TV to the bathroom to the breakfast to the staff. Cons: The hallway smelled of smoke the whole time I was there, even though it was a "No Smoking" hotel.  The room didn't smell of smoke, but felt small.  There weren't any feather pillows (the bed itself was OK but not great), the TV was a flat-screen but still a big set and not HD.  The bathroom felt cramped and the tub was only about 12" deep - it had NO soap dish or any other shelf to put your toiletries, so I was having to repeatedly reach wayyyy down to pick up/put down my shower gel, shampoo, conditioner, face wash, etc.  What a pain!  They supplied small bar soaps, shampoo and lotion - no shower gel, no conditioner - glad I had picked some up at the Hampton!  The "manager's reception" every weekday evening consisted of a bag of tortilla chips and a jar of salsa (that was it, every night for 5 nights), plus a few labels of canned beer and 3 or 4 bottles of cheap wine (the red was refrigerated  - boo).  The breakfast was just mediocre - the eggs weren't "real", and the other choices were quite limited.  The coffee was pretty bad, too.  The indoor pool looked weird (cloudy and greenish) and the spa wasn't even bathtub temperature.  The front desk staff seemed quite indifferent (even annoyed if you asked for something) except for one Hispanic (I think?) young man who was friendly and responsive.Pros - My room was clean and was very quiet and dark at night.  I asked for one on the top floor that faces south (toward the residential area) and was near the front of the hotel, as suggested by a previous reviewer, which was great advice.  This was my first and last stay at the La Quintat.  There are better options for about the same price.More</t>
   </si>
   <si>
+    <t>BStep66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r106018555-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2080,6 +2359,9 @@
     <t>I travel with my baseball team often. During this trip I arrived at the hotel to checkin and realized I booked for the wrong weekend. The hotel looked pretty booked up and we had a special rate for our team. The front desk girl spoke to her manager and was able to accomodate me at the same rate, which was great since I really could not pay the going rate that day. I wish all the places I stay at were this accomodating.</t>
   </si>
   <si>
+    <t>Wdonnie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r89796640-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2098,6 +2380,9 @@
     <t>December 2010</t>
   </si>
   <si>
+    <t>Ruedaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r77017544-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
   </si>
   <si>
@@ -2111,6 +2396,9 @@
   </si>
   <si>
     <t>We stayed for a wedding party in July and the staff was wonderful. The hotel looks new. I liked the colors.</t>
+  </si>
+  <si>
+    <t>garth_enna</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56225-d858427-r55740989-La_Quinta_Inn_Suites_Mansfield-Mansfield_Texas.html</t>
@@ -2633,43 +2921,47 @@
       <c r="A2" t="n">
         <v>54811</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>166341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2691,56 +2983,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>54811</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>12991</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2758,56 +3054,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>54811</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>166342</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2829,56 +3129,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>54811</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>166343</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2894,56 +3198,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>54811</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>166344</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2955,56 +3263,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Y6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>54811</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>166345</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -3026,56 +3338,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>54811</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>166346</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3093,56 +3409,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>54811</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>4034</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3160,56 +3480,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>54811</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>166347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10" t="s">
         <v>116</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" t="s">
-        <v>108</v>
-      </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>111</v>
-      </c>
       <c r="O10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3231,56 +3555,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>54811</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>166348</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3302,54 +3630,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>54811</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>166349</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3371,56 +3703,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>54811</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>166350</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3442,56 +3778,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>54811</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>166351</v>
+      </c>
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="L14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -3513,56 +3853,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X14" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>54811</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>166352</v>
+      </c>
+      <c r="C15" t="s">
+        <v>161</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3584,56 +3928,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X15" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y15" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>54811</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>166353</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="O16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3655,56 +4003,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X16" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>54811</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>166354</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3726,56 +4078,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="X17" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>54811</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>166355</v>
+      </c>
+      <c r="C18" t="s">
+        <v>180</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="J18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3787,56 +4143,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>54811</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>166356</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3858,56 +4218,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>54811</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>166357</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3929,56 +4293,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>54811</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>166358</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="O21" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4000,56 +4368,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="X21" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>54811</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>166359</v>
+      </c>
+      <c r="C22" t="s">
+        <v>212</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="O22" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4071,54 +4443,58 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>54811</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>166360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P23" t="n">
         <v>4</v>
@@ -4140,56 +4516,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="X23" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Y23" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>54811</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>166361</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P24" t="n">
         <v>2</v>
@@ -4211,56 +4591,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>54811</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>166362</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -4282,56 +4666,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="X25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>54811</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>166363</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4353,54 +4741,58 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="X26" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>54811</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>166364</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4422,56 +4814,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="X27" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="Y27" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>54811</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>166365</v>
+      </c>
+      <c r="C28" t="s">
+        <v>256</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="O28" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -4493,56 +4889,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="X28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="Y28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>54811</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>166366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>266</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="O29" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4566,50 +4966,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>54811</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>166367</v>
+      </c>
+      <c r="C30" t="s">
+        <v>273</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -4629,50 +5033,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>54811</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>166368</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="J31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4696,50 +5104,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>54811</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>166369</v>
+      </c>
+      <c r="C32" t="s">
+        <v>287</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="J32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4761,56 +5173,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="X32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="Y32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>54811</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>166370</v>
+      </c>
+      <c r="C33" t="s">
+        <v>297</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="J33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="L33" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4832,56 +5248,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="X33" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="Y33" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>54811</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>43820</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="J34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O34" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4893,56 +5313,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="X34" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="Y34" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>54811</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>166371</v>
+      </c>
+      <c r="C35" t="s">
+        <v>311</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="J35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O35" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -4960,54 +5384,58 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="X35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="Y35" t="s">
-        <v>285</v>
+        <v>319</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>54811</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>166372</v>
+      </c>
+      <c r="C36" t="s">
+        <v>320</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="J36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5029,54 +5457,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="X36" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="Y36" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>54811</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>166373</v>
+      </c>
+      <c r="C37" t="s">
+        <v>324</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="J37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -5098,56 +5530,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="X37" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="Y37" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>54811</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O38" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5159,56 +5595,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>54811</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>166374</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="J39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5230,56 +5670,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>54811</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>166375</v>
+      </c>
+      <c r="C40" t="s">
+        <v>346</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="J40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="L40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5295,56 +5739,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="X40" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="Y40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>54811</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>99083</v>
+      </c>
+      <c r="C41" t="s">
+        <v>353</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="J41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5356,56 +5804,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X41" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>54811</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>28840</v>
+      </c>
+      <c r="C42" t="s">
+        <v>360</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="J42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="K42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="L42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="O42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5417,56 +5869,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X42" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>54811</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>166376</v>
+      </c>
+      <c r="C43" t="s">
+        <v>368</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="K43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="L43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5488,56 +5944,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X43" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y43" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>54811</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>166377</v>
+      </c>
+      <c r="C44" t="s">
+        <v>376</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="J44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="O44" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5559,56 +6019,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X44" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y44" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>54811</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>166378</v>
+      </c>
+      <c r="C45" t="s">
+        <v>383</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="J45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="K45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="O45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5620,56 +6084,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X45" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>54811</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>166379</v>
+      </c>
+      <c r="C46" t="s">
+        <v>390</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="J46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="K46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="L46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="O46" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5681,56 +6149,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="X46" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="Y46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>54811</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>49216</v>
+      </c>
+      <c r="C47" t="s">
+        <v>397</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="J47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="K47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="L47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5750,50 +6222,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>54811</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>166380</v>
+      </c>
+      <c r="C48" t="s">
+        <v>404</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
-        <v>360</v>
+        <v>407</v>
       </c>
       <c r="K48" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="O48" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5805,56 +6281,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="X48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="Y48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>54811</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>166381</v>
+      </c>
+      <c r="C49" t="s">
+        <v>414</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>367</v>
+        <v>415</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="J49" t="s">
-        <v>369</v>
+        <v>417</v>
       </c>
       <c r="K49" t="s">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="L49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5866,56 +6346,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="X49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="Y49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>54811</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>27684</v>
+      </c>
+      <c r="C50" t="s">
+        <v>423</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="J50" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="K50" t="s">
-        <v>378</v>
+        <v>427</v>
       </c>
       <c r="L50" t="s">
-        <v>379</v>
+        <v>428</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5933,56 +6417,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="X50" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="Y50" t="s">
-        <v>380</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>54811</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>11667</v>
+      </c>
+      <c r="C51" t="s">
+        <v>430</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="J51" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="K51" t="s">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="L51" t="s">
-        <v>385</v>
+        <v>435</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="O51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -6000,56 +6488,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>387</v>
+        <v>437</v>
       </c>
       <c r="X51" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="Y51" t="s">
-        <v>389</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>54811</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>166382</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>390</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>391</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>392</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
-        <v>393</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6067,56 +6559,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="X52" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="Y52" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>54811</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>15985</v>
+      </c>
+      <c r="C53" t="s">
+        <v>450</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>395</v>
+        <v>446</v>
       </c>
       <c r="O53" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6138,56 +6634,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="X53" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="Y53" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>54811</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>55119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>459</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>407</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>408</v>
+        <v>461</v>
       </c>
       <c r="J54" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="K54" t="s">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6209,56 +6709,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="X54" t="s">
-        <v>413</v>
+        <v>466</v>
       </c>
       <c r="Y54" t="s">
-        <v>414</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>54811</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>51750</v>
+      </c>
+      <c r="C55" t="s">
+        <v>468</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>416</v>
+        <v>470</v>
       </c>
       <c r="J55" t="s">
-        <v>417</v>
+        <v>471</v>
       </c>
       <c r="K55" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="L55" t="s">
-        <v>419</v>
+        <v>473</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>386</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P55" t="n">
         <v>4</v>
@@ -6280,54 +6784,58 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
       <c r="X55" t="s">
-        <v>421</v>
+        <v>475</v>
       </c>
       <c r="Y55" t="s">
-        <v>422</v>
+        <v>476</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>54811</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>166383</v>
+      </c>
+      <c r="C56" t="s">
+        <v>477</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="J56" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="O56" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6349,56 +6857,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
       <c r="X56" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="Y56" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>54811</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>13896</v>
+      </c>
+      <c r="C57" t="s">
+        <v>484</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="J57" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="K57" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="L57" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="O57" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6420,56 +6932,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="X57" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="Y57" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>54811</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>166384</v>
+      </c>
+      <c r="C58" t="s">
+        <v>494</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="J58" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="K58" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="L58" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6491,56 +7007,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="X58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="Y58" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>54811</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>166385</v>
+      </c>
+      <c r="C59" t="s">
+        <v>504</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="J59" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="K59" t="s">
-        <v>450</v>
+        <v>508</v>
       </c>
       <c r="L59" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6552,56 +7072,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="X59" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="Y59" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>54811</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>166365</v>
+      </c>
+      <c r="C60" t="s">
+        <v>266</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="J60" t="s">
-        <v>457</v>
+        <v>515</v>
       </c>
       <c r="K60" t="s">
-        <v>458</v>
+        <v>516</v>
       </c>
       <c r="L60" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="O60" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6623,56 +7147,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="X60" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="Y60" t="s">
-        <v>460</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>54811</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>54980</v>
+      </c>
+      <c r="C61" t="s">
+        <v>519</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="J61" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="K61" t="s">
-        <v>464</v>
+        <v>523</v>
       </c>
       <c r="L61" t="s">
-        <v>465</v>
+        <v>524</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="O61" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6688,56 +7216,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>467</v>
+        <v>526</v>
       </c>
       <c r="X61" t="s">
-        <v>468</v>
+        <v>527</v>
       </c>
       <c r="Y61" t="s">
-        <v>469</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>54811</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>408</v>
+      </c>
+      <c r="C62" t="s">
+        <v>529</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>470</v>
+        <v>530</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>471</v>
+        <v>531</v>
       </c>
       <c r="J62" t="s">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="K62" t="s">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="L62" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>475</v>
+        <v>535</v>
       </c>
       <c r="O62" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6759,56 +7291,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="X62" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="Y62" t="s">
-        <v>478</v>
+        <v>538</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>54811</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>166386</v>
+      </c>
+      <c r="C63" t="s">
+        <v>539</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>479</v>
+        <v>540</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>480</v>
+        <v>541</v>
       </c>
       <c r="J63" t="s">
-        <v>481</v>
+        <v>542</v>
       </c>
       <c r="K63" t="s">
-        <v>482</v>
+        <v>543</v>
       </c>
       <c r="L63" t="s">
-        <v>483</v>
+        <v>544</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="O63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6824,56 +7360,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="X63" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="Y63" t="s">
-        <v>485</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>54811</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>166387</v>
+      </c>
+      <c r="C64" t="s">
+        <v>547</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="J64" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="K64" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="L64" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="O64" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6891,56 +7431,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="X64" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="Y64" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>54811</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>166388</v>
+      </c>
+      <c r="C65" t="s">
+        <v>555</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>493</v>
+        <v>556</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>494</v>
+        <v>557</v>
       </c>
       <c r="J65" t="s">
-        <v>495</v>
+        <v>558</v>
       </c>
       <c r="K65" t="s">
-        <v>496</v>
+        <v>559</v>
       </c>
       <c r="L65" t="s">
-        <v>497</v>
+        <v>560</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>498</v>
+        <v>561</v>
       </c>
       <c r="O65" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6956,56 +7500,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="X65" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="Y65" t="s">
-        <v>499</v>
+        <v>562</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>54811</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>12525</v>
+      </c>
+      <c r="C66" t="s">
+        <v>563</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>500</v>
+        <v>564</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>501</v>
+        <v>565</v>
       </c>
       <c r="J66" t="s">
-        <v>502</v>
+        <v>566</v>
       </c>
       <c r="K66" t="s">
-        <v>503</v>
+        <v>567</v>
       </c>
       <c r="L66" t="s">
-        <v>504</v>
+        <v>568</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="O66" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7027,56 +7575,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="X66" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="Y66" t="s">
-        <v>505</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>54811</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>4958</v>
+      </c>
+      <c r="C67" t="s">
+        <v>570</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="J67" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="K67" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="L67" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="O67" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7098,56 +7650,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>476</v>
+        <v>536</v>
       </c>
       <c r="X67" t="s">
-        <v>477</v>
+        <v>537</v>
       </c>
       <c r="Y67" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>54811</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>46084</v>
+      </c>
+      <c r="C68" t="s">
+        <v>577</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>512</v>
+        <v>578</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>513</v>
+        <v>579</v>
       </c>
       <c r="J68" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="K68" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="L68" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>484</v>
+        <v>545</v>
       </c>
       <c r="O68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -7171,50 +7727,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>515</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>54811</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>166389</v>
+      </c>
+      <c r="C69" t="s">
+        <v>582</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="J69" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="K69" t="s">
-        <v>519</v>
+        <v>586</v>
       </c>
       <c r="L69" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>521</v>
+        <v>588</v>
       </c>
       <c r="O69" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -7238,50 +7798,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>520</v>
+        <v>587</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>54811</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>12669</v>
+      </c>
+      <c r="C70" t="s">
+        <v>589</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>522</v>
+        <v>590</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>523</v>
+        <v>591</v>
       </c>
       <c r="J70" t="s">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="K70" t="s">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="L70" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="O70" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7305,50 +7869,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>526</v>
+        <v>594</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>54811</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>11965</v>
+      </c>
+      <c r="C71" t="s">
+        <v>596</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="J71" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="K71" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="L71" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="O71" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7372,50 +7940,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>54811</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>10194</v>
+      </c>
+      <c r="C72" t="s">
+        <v>602</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>533</v>
+        <v>603</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>534</v>
+        <v>604</v>
       </c>
       <c r="J72" t="s">
-        <v>535</v>
+        <v>605</v>
       </c>
       <c r="K72" t="s">
-        <v>536</v>
+        <v>606</v>
       </c>
       <c r="L72" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="O72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7439,41 +8011,45 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>537</v>
+        <v>607</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>54811</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>166390</v>
+      </c>
+      <c r="C73" t="s">
+        <v>608</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>539</v>
+        <v>610</v>
       </c>
       <c r="J73" t="s">
-        <v>540</v>
+        <v>611</v>
       </c>
       <c r="K73" t="s">
-        <v>541</v>
+        <v>612</v>
       </c>
       <c r="L73" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
@@ -7492,50 +8068,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>542</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>54811</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>166391</v>
+      </c>
+      <c r="C74" t="s">
+        <v>614</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>544</v>
+        <v>616</v>
       </c>
       <c r="J74" t="s">
-        <v>545</v>
+        <v>617</v>
       </c>
       <c r="K74" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="L74" t="s">
-        <v>547</v>
+        <v>619</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="O74" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7559,50 +8139,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>549</v>
+        <v>621</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>54811</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>166392</v>
+      </c>
+      <c r="C75" t="s">
+        <v>622</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
       <c r="J75" t="s">
-        <v>552</v>
+        <v>625</v>
       </c>
       <c r="K75" t="s">
-        <v>553</v>
+        <v>626</v>
       </c>
       <c r="L75" t="s">
-        <v>554</v>
+        <v>627</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>527</v>
+        <v>595</v>
       </c>
       <c r="O75" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P75" t="n">
         <v>2</v>
@@ -7626,50 +8210,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>555</v>
+        <v>628</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>54811</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>15985</v>
+      </c>
+      <c r="C76" t="s">
+        <v>450</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>556</v>
+        <v>629</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>557</v>
+        <v>630</v>
       </c>
       <c r="J76" t="s">
-        <v>558</v>
+        <v>631</v>
       </c>
       <c r="K76" t="s">
-        <v>559</v>
+        <v>632</v>
       </c>
       <c r="L76" t="s">
-        <v>560</v>
+        <v>633</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="O76" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7693,50 +8281,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>560</v>
+        <v>633</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>54811</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C77" t="s">
+        <v>634</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>561</v>
+        <v>635</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>562</v>
+        <v>636</v>
       </c>
       <c r="J77" t="s">
-        <v>563</v>
+        <v>637</v>
       </c>
       <c r="K77" t="s">
-        <v>564</v>
+        <v>638</v>
       </c>
       <c r="L77" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>548</v>
+        <v>620</v>
       </c>
       <c r="O77" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7760,50 +8352,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>565</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>54811</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>4958</v>
+      </c>
+      <c r="C78" t="s">
+        <v>570</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>566</v>
+        <v>640</v>
       </c>
       <c r="G78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>567</v>
+        <v>641</v>
       </c>
       <c r="J78" t="s">
-        <v>568</v>
+        <v>642</v>
       </c>
       <c r="K78" t="s">
-        <v>569</v>
+        <v>643</v>
       </c>
       <c r="L78" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>571</v>
+        <v>645</v>
       </c>
       <c r="O78" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7827,41 +8423,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>570</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>54811</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>166393</v>
+      </c>
+      <c r="C79" t="s">
+        <v>646</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>572</v>
+        <v>647</v>
       </c>
       <c r="G79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>573</v>
+        <v>648</v>
       </c>
       <c r="J79" t="s">
-        <v>574</v>
+        <v>649</v>
       </c>
       <c r="K79" t="s">
-        <v>575</v>
+        <v>650</v>
       </c>
       <c r="L79" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -7890,41 +8490,45 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>576</v>
+        <v>651</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>54811</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>166394</v>
+      </c>
+      <c r="C80" t="s">
+        <v>652</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>577</v>
+        <v>653</v>
       </c>
       <c r="G80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>578</v>
+        <v>654</v>
       </c>
       <c r="J80" t="s">
-        <v>579</v>
+        <v>655</v>
       </c>
       <c r="K80" t="s">
-        <v>580</v>
+        <v>656</v>
       </c>
       <c r="L80" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
@@ -7953,50 +8557,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>581</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>54811</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>166395</v>
+      </c>
+      <c r="C81" t="s">
+        <v>658</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
       <c r="G81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>583</v>
+        <v>660</v>
       </c>
       <c r="J81" t="s">
-        <v>584</v>
+        <v>661</v>
       </c>
       <c r="K81" t="s">
-        <v>585</v>
+        <v>662</v>
       </c>
       <c r="L81" t="s">
-        <v>586</v>
+        <v>663</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>587</v>
+        <v>664</v>
       </c>
       <c r="O81" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8020,50 +8628,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>588</v>
+        <v>665</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>54811</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>166396</v>
+      </c>
+      <c r="C82" t="s">
+        <v>666</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>589</v>
+        <v>667</v>
       </c>
       <c r="G82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>590</v>
+        <v>668</v>
       </c>
       <c r="J82" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="K82" t="s">
-        <v>592</v>
+        <v>670</v>
       </c>
       <c r="L82" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="O82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8085,50 +8697,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>593</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>54811</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>166397</v>
+      </c>
+      <c r="C83" t="s">
+        <v>673</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>595</v>
+        <v>674</v>
       </c>
       <c r="G83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>596</v>
+        <v>675</v>
       </c>
       <c r="J83" t="s">
-        <v>591</v>
+        <v>669</v>
       </c>
       <c r="K83" t="s">
-        <v>597</v>
+        <v>676</v>
       </c>
       <c r="L83" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="O83" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8152,41 +8768,45 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>598</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>54811</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>166398</v>
+      </c>
+      <c r="C84" t="s">
+        <v>678</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>599</v>
+        <v>679</v>
       </c>
       <c r="G84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="J84" t="s">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="K84" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="L84" t="s">
-        <v>603</v>
+        <v>683</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
@@ -8215,50 +8835,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>603</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>54811</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>166399</v>
+      </c>
+      <c r="C85" t="s">
+        <v>684</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>604</v>
+        <v>685</v>
       </c>
       <c r="G85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>605</v>
+        <v>686</v>
       </c>
       <c r="J85" t="s">
-        <v>606</v>
+        <v>687</v>
       </c>
       <c r="K85" t="s">
-        <v>607</v>
+        <v>688</v>
       </c>
       <c r="L85" t="s">
-        <v>608</v>
+        <v>689</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>594</v>
+        <v>672</v>
       </c>
       <c r="O85" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8282,50 +8906,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>609</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>54811</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>4094</v>
+      </c>
+      <c r="C86" t="s">
+        <v>691</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>610</v>
+        <v>692</v>
       </c>
       <c r="G86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>611</v>
+        <v>693</v>
       </c>
       <c r="J86" t="s">
-        <v>612</v>
+        <v>694</v>
       </c>
       <c r="K86" t="s">
-        <v>613</v>
+        <v>695</v>
       </c>
       <c r="L86" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>615</v>
+        <v>697</v>
       </c>
       <c r="O86" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8349,41 +8977,45 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>614</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>54811</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>166400</v>
+      </c>
+      <c r="C87" t="s">
+        <v>698</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>616</v>
+        <v>699</v>
       </c>
       <c r="G87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>617</v>
+        <v>700</v>
       </c>
       <c r="J87" t="s">
-        <v>618</v>
+        <v>701</v>
       </c>
       <c r="K87" t="s">
-        <v>619</v>
+        <v>702</v>
       </c>
       <c r="L87" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
@@ -8412,50 +9044,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>620</v>
+        <v>703</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>54811</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>166401</v>
+      </c>
+      <c r="C88" t="s">
+        <v>704</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>621</v>
+        <v>705</v>
       </c>
       <c r="G88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>622</v>
+        <v>706</v>
       </c>
       <c r="J88" t="s">
-        <v>623</v>
+        <v>707</v>
       </c>
       <c r="K88" t="s">
-        <v>624</v>
+        <v>708</v>
       </c>
       <c r="L88" t="s">
-        <v>625</v>
+        <v>709</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>626</v>
+        <v>710</v>
       </c>
       <c r="O88" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -8479,50 +9115,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>627</v>
+        <v>711</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>54811</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>166402</v>
+      </c>
+      <c r="C89" t="s">
+        <v>712</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>628</v>
+        <v>713</v>
       </c>
       <c r="G89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>629</v>
+        <v>714</v>
       </c>
       <c r="J89" t="s">
-        <v>630</v>
+        <v>715</v>
       </c>
       <c r="K89" t="s">
-        <v>631</v>
+        <v>716</v>
       </c>
       <c r="L89" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="O89" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8546,50 +9186,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>632</v>
+        <v>717</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>54811</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>719</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="G90" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="J90" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="K90" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
       <c r="L90" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="O90" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8613,35 +9257,39 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>54811</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C91" t="s">
+        <v>725</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>639</v>
+        <v>726</v>
       </c>
       <c r="G91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>640</v>
+        <v>727</v>
       </c>
       <c r="J91" t="s">
-        <v>641</v>
+        <v>728</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8649,10 +9297,10 @@
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>633</v>
+        <v>718</v>
       </c>
       <c r="O91" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8673,51 +9321,52 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>54811</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>5479</v>
+      </c>
+      <c r="C92" t="s">
+        <v>729</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>642</v>
+        <v>730</v>
       </c>
       <c r="G92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>643</v>
+        <v>731</v>
       </c>
       <c r="J92" t="s">
-        <v>644</v>
+        <v>732</v>
       </c>
       <c r="K92" t="s">
-        <v>645</v>
+        <v>733</v>
       </c>
       <c r="L92" t="s">
-        <v>646</v>
+        <v>734</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
       <c r="O92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8741,35 +9390,39 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>646</v>
+        <v>734</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>54811</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>7212</v>
+      </c>
+      <c r="C93" t="s">
+        <v>736</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>648</v>
+        <v>737</v>
       </c>
       <c r="G93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>649</v>
+        <v>738</v>
       </c>
       <c r="J93" t="s">
-        <v>650</v>
+        <v>739</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8777,10 +9430,10 @@
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>647</v>
+        <v>735</v>
       </c>
       <c r="O93" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8801,51 +9454,52 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>54811</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>166403</v>
+      </c>
+      <c r="C94" t="s">
+        <v>740</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>651</v>
+        <v>741</v>
       </c>
       <c r="G94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>652</v>
+        <v>742</v>
       </c>
       <c r="J94" t="s">
-        <v>653</v>
+        <v>743</v>
       </c>
       <c r="K94" t="s">
-        <v>654</v>
+        <v>744</v>
       </c>
       <c r="L94" t="s">
-        <v>655</v>
+        <v>745</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="O94" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8869,50 +9523,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>657</v>
+        <v>747</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>54811</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>719</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>658</v>
+        <v>748</v>
       </c>
       <c r="G95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>659</v>
+        <v>749</v>
       </c>
       <c r="J95" t="s">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="K95" t="s">
-        <v>661</v>
+        <v>751</v>
       </c>
       <c r="L95" t="s">
-        <v>662</v>
+        <v>752</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="O95" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -8936,50 +9594,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>663</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>54811</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>166404</v>
+      </c>
+      <c r="C96" t="s">
+        <v>754</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>664</v>
+        <v>755</v>
       </c>
       <c r="G96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>665</v>
+        <v>756</v>
       </c>
       <c r="J96" t="s">
-        <v>666</v>
+        <v>757</v>
       </c>
       <c r="K96" t="s">
-        <v>546</v>
+        <v>618</v>
       </c>
       <c r="L96" t="s">
-        <v>667</v>
+        <v>758</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>656</v>
+        <v>746</v>
       </c>
       <c r="O96" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9003,50 +9665,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>667</v>
+        <v>758</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>54811</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>166405</v>
+      </c>
+      <c r="C97" t="s">
+        <v>759</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>668</v>
+        <v>760</v>
       </c>
       <c r="G97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>669</v>
+        <v>761</v>
       </c>
       <c r="J97" t="s">
-        <v>670</v>
+        <v>762</v>
       </c>
       <c r="K97" t="s">
-        <v>671</v>
+        <v>763</v>
       </c>
       <c r="L97" t="s">
-        <v>672</v>
+        <v>764</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>673</v>
+        <v>765</v>
       </c>
       <c r="O97" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -9070,41 +9736,45 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>674</v>
+        <v>766</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>54811</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>166406</v>
+      </c>
+      <c r="C98" t="s">
+        <v>767</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>675</v>
+        <v>768</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>676</v>
+        <v>769</v>
       </c>
       <c r="J98" t="s">
-        <v>677</v>
+        <v>770</v>
       </c>
       <c r="K98" t="s">
-        <v>678</v>
+        <v>771</v>
       </c>
       <c r="L98" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
@@ -9133,50 +9803,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>679</v>
+        <v>772</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>54811</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>166407</v>
+      </c>
+      <c r="C99" t="s">
+        <v>773</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>680</v>
+        <v>774</v>
       </c>
       <c r="G99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>681</v>
+        <v>775</v>
       </c>
       <c r="J99" t="s">
-        <v>682</v>
+        <v>776</v>
       </c>
       <c r="K99" t="s">
-        <v>683</v>
+        <v>777</v>
       </c>
       <c r="L99" t="s">
-        <v>684</v>
+        <v>778</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>685</v>
+        <v>779</v>
       </c>
       <c r="O99" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9200,41 +9874,45 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>684</v>
+        <v>778</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>54811</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>166408</v>
+      </c>
+      <c r="C100" t="s">
+        <v>780</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>686</v>
+        <v>781</v>
       </c>
       <c r="G100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>687</v>
+        <v>782</v>
       </c>
       <c r="J100" t="s">
-        <v>688</v>
+        <v>783</v>
       </c>
       <c r="K100" t="s">
-        <v>689</v>
+        <v>784</v>
       </c>
       <c r="L100" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
@@ -9263,50 +9941,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>690</v>
+        <v>785</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>54811</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>166409</v>
+      </c>
+      <c r="C101" t="s">
+        <v>786</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>691</v>
+        <v>787</v>
       </c>
       <c r="G101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>692</v>
+        <v>788</v>
       </c>
       <c r="J101" t="s">
-        <v>693</v>
+        <v>789</v>
       </c>
       <c r="K101" t="s">
-        <v>694</v>
+        <v>790</v>
       </c>
       <c r="L101" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>696</v>
+        <v>792</v>
       </c>
       <c r="O101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9330,7 +10012,7 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>695</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
